--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_20_10.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_20_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2347657.251373025</v>
+        <v>-2348336.668474856</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5588220.064038461</v>
+        <v>5588220.064038463</v>
       </c>
     </row>
     <row r="8">
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>218.7134039554107</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>197.7060249576205</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>219.448162527526</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>238.6199786155032</v>
       </c>
       <c r="G11" t="n">
         <v>239.9403233994415</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>48.04258570959367</v>
+        <v>48.04258570959362</v>
       </c>
       <c r="U11" t="n">
-        <v>80.89774890663901</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>17.15344271624477</v>
+        <v>24.71228885810439</v>
       </c>
       <c r="W11" t="n">
-        <v>187.5198806735468</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>218.2167367024922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>72.94416740586544</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>95.77124205704071</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>145.180098865789</v>
       </c>
       <c r="T12" t="n">
-        <v>14.08671310092214</v>
+        <v>175.2944881048352</v>
       </c>
       <c r="U12" t="n">
         <v>216.2882692949636</v>
@@ -1512,10 +1512,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
-        <v>24.5481180735552</v>
+        <v>24.54811807355514</v>
       </c>
       <c r="Y12" t="n">
-        <v>190.5961130869169</v>
+        <v>19.20641291948874</v>
       </c>
     </row>
     <row r="13">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.33011483010787</v>
+        <v>10.33011483010782</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>79.76859040496147</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>94.72631518417047</v>
+        <v>35.39157652215684</v>
       </c>
       <c r="T13" t="n">
-        <v>229.6724362179661</v>
+        <v>58.2827360505379</v>
       </c>
       <c r="U13" t="n">
-        <v>112.9136404279224</v>
+        <v>112.9136404279223</v>
       </c>
       <c r="V13" t="n">
-        <v>86.73825122973346</v>
+        <v>86.73825122973341</v>
       </c>
       <c r="W13" t="n">
         <v>111.9051373003467</v>
       </c>
       <c r="X13" t="n">
-        <v>57.55023929614984</v>
+        <v>57.55023929614978</v>
       </c>
       <c r="Y13" t="n">
-        <v>48.42510705221753</v>
+        <v>48.42510705221747</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>218.7134039554108</v>
+        <v>218.7134039554107</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>206.7247209130925</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>197.7060249576205</v>
       </c>
       <c r="E14" t="n">
-        <v>219.4481625275261</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>238.6199786155032</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>237.3922586232217</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>151.8262626552655</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,16 +1658,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>33.88404984662894</v>
+        <v>48.04258570959361</v>
       </c>
       <c r="U14" t="n">
-        <v>80.89774890663901</v>
+        <v>80.89774890663895</v>
       </c>
       <c r="V14" t="n">
-        <v>162.2197811955899</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>187.5198806735468</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>59.37971559188555</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>56.40745017229531</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>2.972265419589469</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1749,10 +1749,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X15" t="n">
-        <v>24.5481180735552</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y15" t="n">
-        <v>190.5961130869169</v>
+        <v>19.20641291948874</v>
       </c>
     </row>
     <row r="16">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.33011483010787</v>
+        <v>10.33011483010782</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>59.33473866201391</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>35.3915765221569</v>
+        <v>206.781276689585</v>
       </c>
       <c r="T16" t="n">
-        <v>229.6724362179661</v>
+        <v>58.2827360505379</v>
       </c>
       <c r="U16" t="n">
-        <v>172.248379089936</v>
+        <v>112.9136404279223</v>
       </c>
       <c r="V16" t="n">
-        <v>86.73825122973346</v>
+        <v>86.73825122973341</v>
       </c>
       <c r="W16" t="n">
         <v>111.9051373003467</v>
       </c>
       <c r="X16" t="n">
-        <v>57.55023929614984</v>
+        <v>57.55023929614978</v>
       </c>
       <c r="Y16" t="n">
-        <v>48.42510705221753</v>
+        <v>48.42510705221747</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>118.1268213389617</v>
+        <v>118.1268213389619</v>
       </c>
       <c r="C17" t="n">
-        <v>106.1381382966435</v>
+        <v>106.1381382966436</v>
       </c>
       <c r="D17" t="n">
-        <v>97.11944234117146</v>
+        <v>97.11944234117158</v>
       </c>
       <c r="E17" t="n">
-        <v>118.861579911077</v>
+        <v>118.8615799110771</v>
       </c>
       <c r="F17" t="n">
-        <v>138.0333959990542</v>
+        <v>138.0333959990543</v>
       </c>
       <c r="G17" t="n">
-        <v>139.3537407829931</v>
+        <v>139.3537407829926</v>
       </c>
       <c r="H17" t="n">
-        <v>51.23968003881647</v>
+        <v>51.23968003881658</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>61.63319857914087</v>
+        <v>61.63319857914098</v>
       </c>
       <c r="W17" t="n">
-        <v>86.93329805709777</v>
+        <v>86.93329805709739</v>
       </c>
       <c r="X17" t="n">
-        <v>106.2335562898444</v>
+        <v>106.2335562898445</v>
       </c>
       <c r="Y17" t="n">
-        <v>117.6301540860431</v>
+        <v>117.6301540860433</v>
       </c>
     </row>
     <row r="18">
@@ -1920,25 +1920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
-        <v>137.45025063969</v>
+        <v>78.93520314249434</v>
       </c>
       <c r="E18" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>95.77124205704071</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1980,16 +1980,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
-        <v>20.50234945502877</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X18" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>156.5891007707814</v>
       </c>
       <c r="C19" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>40.01867628890813</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2044,28 +2044,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>15.12980963648914</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>135.6644318885835</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>229.6724362179661</v>
       </c>
       <c r="U19" t="n">
-        <v>12.32705781147334</v>
+        <v>12.32705781147345</v>
       </c>
       <c r="V19" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>11.31855468389767</v>
+        <v>11.31855468389779</v>
       </c>
       <c r="X19" t="n">
-        <v>151.0266935626304</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>118.1268213389617</v>
+        <v>118.1268213389619</v>
       </c>
       <c r="C20" t="n">
-        <v>106.1381382966435</v>
+        <v>106.1381382966436</v>
       </c>
       <c r="D20" t="n">
-        <v>97.11944234117146</v>
+        <v>97.11944234117158</v>
       </c>
       <c r="E20" t="n">
-        <v>118.861579911077</v>
+        <v>118.8615799110771</v>
       </c>
       <c r="F20" t="n">
-        <v>138.0333959990542</v>
+        <v>138.0333959990543</v>
       </c>
       <c r="G20" t="n">
-        <v>139.3537407829925</v>
+        <v>139.3537407829926</v>
       </c>
       <c r="H20" t="n">
-        <v>51.23968003881646</v>
+        <v>51.23968003881657</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>61.63319857914087</v>
+        <v>61.63319857914098</v>
       </c>
       <c r="W20" t="n">
-        <v>86.93329805709777</v>
+        <v>86.93329805709789</v>
       </c>
       <c r="X20" t="n">
-        <v>106.2335562898444</v>
+        <v>106.2335562898445</v>
       </c>
       <c r="Y20" t="n">
-        <v>117.6301540860431</v>
+        <v>117.6301540860433</v>
       </c>
     </row>
     <row r="21">
@@ -2157,28 +2157,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>127.1132721997666</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>95.77124205704071</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>56.40745017229531</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.50234945502877</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>145.180098865789</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>185.4764132683503</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>66.34015275242876</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2239,28 +2239,28 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9556149377512</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>155.3344859367049</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.4929323504436</v>
       </c>
       <c r="J22" t="n">
-        <v>40.01867628890813</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>229.6724362179661</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>138.2103013491214</v>
+        <v>12.32705781147345</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>11.31855468389767</v>
+        <v>11.31855468389779</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>105.2496671803746</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>139.3537407829925</v>
       </c>
       <c r="H23" t="n">
-        <v>51.23968003881647</v>
+        <v>51.23968003881646</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2409,10 +2409,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1518984010484861</v>
+        <v>127.1132721997666</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>89.32689549624456</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>216.2882692949636</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.9556149377512</v>
       </c>
       <c r="H25" t="n">
         <v>155.3344859367049</v>
@@ -2521,13 +2521,13 @@
         <v>15.12980963648914</v>
       </c>
       <c r="R25" t="n">
-        <v>135.6644318885835</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>206.781276689585</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>175.6869486029726</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>12.32705781147334</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>11.31855468389767</v>
+        <v>29.81993350527091</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2555,25 +2555,25 @@
         <v>289.108279482593</v>
       </c>
       <c r="C26" t="n">
-        <v>277.1195964402748</v>
+        <v>277.1195964402747</v>
       </c>
       <c r="D26" t="n">
-        <v>268.1009004848028</v>
+        <v>268.1009004848027</v>
       </c>
       <c r="E26" t="n">
-        <v>289.8430380547084</v>
+        <v>289.8430380547082</v>
       </c>
       <c r="F26" t="n">
-        <v>309.0148541426855</v>
+        <v>309.0148541426854</v>
       </c>
       <c r="G26" t="n">
-        <v>310.3351989266238</v>
+        <v>310.3351989266237</v>
       </c>
       <c r="H26" t="n">
-        <v>222.2211381824478</v>
+        <v>222.2211381824477</v>
       </c>
       <c r="I26" t="n">
-        <v>46.46448383044614</v>
+        <v>46.46448383044607</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.39487552718231</v>
+        <v>70.39487552718224</v>
       </c>
       <c r="T26" t="n">
         <v>118.4374612367759</v>
       </c>
       <c r="U26" t="n">
-        <v>151.2926244338213</v>
+        <v>151.2926244338212</v>
       </c>
       <c r="V26" t="n">
-        <v>232.6146567227722</v>
+        <v>232.6146567227721</v>
       </c>
       <c r="W26" t="n">
-        <v>257.9147562007291</v>
+        <v>257.914756200729</v>
       </c>
       <c r="X26" t="n">
-        <v>277.2150144334757</v>
+        <v>277.2150144334756</v>
       </c>
       <c r="Y26" t="n">
-        <v>288.6116122296745</v>
+        <v>288.6116122296744</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.72499035729015</v>
+        <v>80.72499035729008</v>
       </c>
       <c r="C28" t="n">
-        <v>66.92498520269064</v>
+        <v>66.92498520269056</v>
       </c>
       <c r="D28" t="n">
-        <v>50.54634960026902</v>
+        <v>50.54634960026895</v>
       </c>
       <c r="E28" t="n">
-        <v>49.49409945604847</v>
+        <v>49.4940994560484</v>
       </c>
       <c r="F28" t="n">
-        <v>49.96102378423478</v>
+        <v>49.96102378423471</v>
       </c>
       <c r="G28" t="n">
-        <v>65.96079029750538</v>
+        <v>65.96079029750531</v>
       </c>
       <c r="H28" t="n">
-        <v>54.33966129645903</v>
+        <v>54.33966129645896</v>
       </c>
       <c r="I28" t="n">
-        <v>33.49810771019774</v>
+        <v>33.49810771019767</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66960724833761</v>
+        <v>34.66960724833754</v>
       </c>
       <c r="S28" t="n">
-        <v>105.7864520493392</v>
+        <v>105.7864520493391</v>
       </c>
       <c r="T28" t="n">
-        <v>128.6776115777202</v>
+        <v>128.6776115777201</v>
       </c>
       <c r="U28" t="n">
-        <v>183.3085159551047</v>
+        <v>183.3085159551046</v>
       </c>
       <c r="V28" t="n">
         <v>157.1331267569157</v>
       </c>
       <c r="W28" t="n">
-        <v>182.300012827529</v>
+        <v>182.3000128275289</v>
       </c>
       <c r="X28" t="n">
-        <v>127.9451148233321</v>
+        <v>127.945114823332</v>
       </c>
       <c r="Y28" t="n">
-        <v>118.8199825793998</v>
+        <v>118.8199825793997</v>
       </c>
     </row>
     <row r="29">
@@ -2792,25 +2792,25 @@
         <v>289.108279482593</v>
       </c>
       <c r="C29" t="n">
-        <v>277.1195964402748</v>
+        <v>277.1195964402747</v>
       </c>
       <c r="D29" t="n">
-        <v>268.1009004848028</v>
+        <v>268.1009004848027</v>
       </c>
       <c r="E29" t="n">
-        <v>289.8430380547083</v>
+        <v>289.8430380547082</v>
       </c>
       <c r="F29" t="n">
-        <v>309.0148541426855</v>
+        <v>309.0148541426854</v>
       </c>
       <c r="G29" t="n">
-        <v>310.3351989266238</v>
+        <v>310.3351989266237</v>
       </c>
       <c r="H29" t="n">
-        <v>222.2211381824478</v>
+        <v>222.2211381824477</v>
       </c>
       <c r="I29" t="n">
-        <v>46.4644838304461</v>
+        <v>46.46448383044607</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.39487552718228</v>
+        <v>70.39487552718224</v>
       </c>
       <c r="T29" t="n">
         <v>118.4374612367759</v>
       </c>
       <c r="U29" t="n">
-        <v>151.2926244338213</v>
+        <v>151.2926244338212</v>
       </c>
       <c r="V29" t="n">
-        <v>232.6146567227722</v>
+        <v>232.6146567227721</v>
       </c>
       <c r="W29" t="n">
-        <v>257.9147562007291</v>
+        <v>257.914756200729</v>
       </c>
       <c r="X29" t="n">
-        <v>277.2150144334757</v>
+        <v>277.2150144334756</v>
       </c>
       <c r="Y29" t="n">
         <v>288.6116122296744</v>
@@ -2889,7 +2889,7 @@
         <v>95.77124205704071</v>
       </c>
       <c r="I30" t="n">
-        <v>56.4074501722953</v>
+        <v>56.40745017229531</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>38.82520712046109</v>
+        <v>38.82520712046112</v>
       </c>
       <c r="S30" t="n">
         <v>145.180098865789</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.72499035729014</v>
+        <v>80.72499035729008</v>
       </c>
       <c r="C31" t="n">
-        <v>66.92498520269062</v>
+        <v>66.92498520269056</v>
       </c>
       <c r="D31" t="n">
-        <v>50.54634960026901</v>
+        <v>50.54634960026895</v>
       </c>
       <c r="E31" t="n">
-        <v>49.49409945604846</v>
+        <v>49.4940994560484</v>
       </c>
       <c r="F31" t="n">
-        <v>49.96102378423477</v>
+        <v>49.96102378423471</v>
       </c>
       <c r="G31" t="n">
-        <v>65.96079029750537</v>
+        <v>65.96079029750531</v>
       </c>
       <c r="H31" t="n">
-        <v>54.33966129645901</v>
+        <v>54.33966129645897</v>
       </c>
       <c r="I31" t="n">
-        <v>33.49810771019772</v>
+        <v>33.49810771019769</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66960724833758</v>
+        <v>34.66960724833756</v>
       </c>
       <c r="S31" t="n">
-        <v>105.7864520493392</v>
+        <v>105.7864520493391</v>
       </c>
       <c r="T31" t="n">
-        <v>128.6776115777202</v>
+        <v>128.6776115777201</v>
       </c>
       <c r="U31" t="n">
         <v>183.3085159551046</v>
@@ -3010,13 +3010,13 @@
         <v>157.1331267569157</v>
       </c>
       <c r="W31" t="n">
-        <v>182.300012827529</v>
+        <v>182.3000128275289</v>
       </c>
       <c r="X31" t="n">
-        <v>127.9451148233321</v>
+        <v>127.945114823332</v>
       </c>
       <c r="Y31" t="n">
-        <v>118.8199825793998</v>
+        <v>118.8199825793997</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>289.108279482593</v>
+        <v>289.1082794825929</v>
       </c>
       <c r="C32" t="n">
         <v>277.1195964402747</v>
@@ -3044,10 +3044,10 @@
         <v>310.3351989266237</v>
       </c>
       <c r="H32" t="n">
-        <v>222.2211381824477</v>
+        <v>222.2211381824476</v>
       </c>
       <c r="I32" t="n">
-        <v>46.46448383044607</v>
+        <v>46.46448383044599</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.39487552718224</v>
+        <v>70.39487552718215</v>
       </c>
       <c r="T32" t="n">
-        <v>118.4374612367759</v>
+        <v>118.4374612367758</v>
       </c>
       <c r="U32" t="n">
-        <v>151.2926244338212</v>
+        <v>151.2926244338211</v>
       </c>
       <c r="V32" t="n">
         <v>232.6146567227721</v>
@@ -3095,7 +3095,7 @@
         <v>277.2150144334756</v>
       </c>
       <c r="Y32" t="n">
-        <v>288.6116122296744</v>
+        <v>288.6116122296743</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.72499035729008</v>
+        <v>80.72499035729</v>
       </c>
       <c r="C34" t="n">
-        <v>66.92498520269056</v>
+        <v>66.92498520269048</v>
       </c>
       <c r="D34" t="n">
-        <v>50.54634960026895</v>
+        <v>50.54634960026887</v>
       </c>
       <c r="E34" t="n">
-        <v>49.4940994560484</v>
+        <v>49.49409945604832</v>
       </c>
       <c r="F34" t="n">
-        <v>49.96102378423471</v>
+        <v>49.96102378423463</v>
       </c>
       <c r="G34" t="n">
-        <v>65.96079029750531</v>
+        <v>65.96079029750523</v>
       </c>
       <c r="H34" t="n">
-        <v>54.33966129645897</v>
+        <v>54.33966129645887</v>
       </c>
       <c r="I34" t="n">
-        <v>33.49810771019769</v>
+        <v>33.49810771019759</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66960724833756</v>
+        <v>34.66960724833746</v>
       </c>
       <c r="S34" t="n">
-        <v>105.7864520493391</v>
+        <v>105.786452049339</v>
       </c>
       <c r="T34" t="n">
         <v>128.6776115777201</v>
       </c>
       <c r="U34" t="n">
-        <v>183.3085159551046</v>
+        <v>183.3085159551045</v>
       </c>
       <c r="V34" t="n">
-        <v>157.1331267569157</v>
+        <v>157.1331267569156</v>
       </c>
       <c r="W34" t="n">
         <v>182.3000128275289</v>
@@ -3253,7 +3253,7 @@
         <v>127.945114823332</v>
       </c>
       <c r="Y34" t="n">
-        <v>118.8199825793997</v>
+        <v>118.8199825793996</v>
       </c>
     </row>
     <row r="35">
@@ -3266,22 +3266,22 @@
         <v>210.3049220700379</v>
       </c>
       <c r="C35" t="n">
-        <v>198.3162390277197</v>
+        <v>198.3162390277196</v>
       </c>
       <c r="D35" t="n">
-        <v>189.2975430722477</v>
+        <v>189.2975430722476</v>
       </c>
       <c r="E35" t="n">
-        <v>211.0396806421532</v>
+        <v>211.0396806421531</v>
       </c>
       <c r="F35" t="n">
-        <v>230.2114967301304</v>
+        <v>230.2114967301303</v>
       </c>
       <c r="G35" t="n">
-        <v>231.5318415140687</v>
+        <v>231.5318415140686</v>
       </c>
       <c r="H35" t="n">
-        <v>143.4177807698927</v>
+        <v>143.4177807698926</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,19 +3317,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>39.63410382422083</v>
+        <v>39.63410382422076</v>
       </c>
       <c r="U35" t="n">
-        <v>72.48926702126616</v>
+        <v>72.4892670212661</v>
       </c>
       <c r="V35" t="n">
-        <v>153.8112993102171</v>
+        <v>153.811299310217</v>
       </c>
       <c r="W35" t="n">
-        <v>179.111398788174</v>
+        <v>179.1113987881739</v>
       </c>
       <c r="X35" t="n">
-        <v>198.4116570209206</v>
+        <v>198.4116570209205</v>
       </c>
       <c r="Y35" t="n">
         <v>209.8082548171193</v>
@@ -3357,13 +3357,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>95.80046338761719</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>95.77124205704071</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>38.85442845103587</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>38.82520712046112</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>145.180098865789</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.921632944735023</v>
+        <v>1.921632944734966</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3475,22 +3475,22 @@
         <v>206.781276689585</v>
       </c>
       <c r="T37" t="n">
-        <v>152.9385563882995</v>
+        <v>49.87425416516505</v>
       </c>
       <c r="U37" t="n">
         <v>104.5051585425495</v>
       </c>
       <c r="V37" t="n">
-        <v>78.32976934436061</v>
+        <v>78.32976934436056</v>
       </c>
       <c r="W37" t="n">
-        <v>103.4966554149739</v>
+        <v>206.5609576381086</v>
       </c>
       <c r="X37" t="n">
-        <v>49.14175741077699</v>
+        <v>49.14175741077693</v>
       </c>
       <c r="Y37" t="n">
-        <v>40.01662516684468</v>
+        <v>40.01662516684462</v>
       </c>
     </row>
     <row r="38">
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>39.63410382422086</v>
+        <v>39.63410382422084</v>
       </c>
       <c r="U38" t="n">
         <v>72.48926702126619</v>
@@ -3597,10 +3597,10 @@
         <v>127.1132721997666</v>
       </c>
       <c r="H39" t="n">
-        <v>95.77124205704071</v>
+        <v>57.45983988134441</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>56.40745017229531</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>38.82520712046112</v>
       </c>
       <c r="S39" t="n">
-        <v>145.180098865789</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>185.4764132683503</v>
       </c>
       <c r="U39" t="n">
-        <v>128.0294255462344</v>
+        <v>216.2882692949636</v>
       </c>
       <c r="V39" t="n">
         <v>226.1116663261494</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10.08650857001074</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>155.3344859367049</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.4929323504436</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>15.12980963648914</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>49.87425416516513</v>
       </c>
       <c r="U40" t="n">
-        <v>104.5051585425496</v>
+        <v>207.5694607656837</v>
       </c>
       <c r="V40" t="n">
         <v>78.32976934436064</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>210.7131640938348</v>
+        <v>210.7131640938349</v>
       </c>
       <c r="C41" t="n">
-        <v>198.7244810515165</v>
+        <v>198.7244810515167</v>
       </c>
       <c r="D41" t="n">
-        <v>189.7057850960445</v>
+        <v>189.7057850960447</v>
       </c>
       <c r="E41" t="n">
-        <v>211.44792266595</v>
+        <v>211.4479226659502</v>
       </c>
       <c r="F41" t="n">
-        <v>230.6197387539272</v>
+        <v>230.6197387539274</v>
       </c>
       <c r="G41" t="n">
-        <v>231.9400835378655</v>
+        <v>231.9400835378657</v>
       </c>
       <c r="H41" t="n">
-        <v>143.8260227936895</v>
+        <v>143.8260227936896</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>40.04234584801766</v>
+        <v>40.0423458480178</v>
       </c>
       <c r="U41" t="n">
-        <v>72.897509045063</v>
+        <v>72.89750904506315</v>
       </c>
       <c r="V41" t="n">
-        <v>154.2195413340139</v>
+        <v>154.2195413340141</v>
       </c>
       <c r="W41" t="n">
-        <v>179.5196408119708</v>
+        <v>179.519640811971</v>
       </c>
       <c r="X41" t="n">
-        <v>198.8198990447174</v>
+        <v>198.8198990447176</v>
       </c>
       <c r="Y41" t="n">
-        <v>210.2164968409162</v>
+        <v>210.2164968409163</v>
       </c>
     </row>
     <row r="42">
@@ -3831,13 +3831,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>5.33636763993556</v>
+        <v>127.1132721997666</v>
       </c>
       <c r="H42" t="n">
         <v>95.77124205704071</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>56.40745017229531</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>38.82520712046112</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>145.180098865789</v>
@@ -3873,7 +3873,7 @@
         <v>185.4764132683503</v>
       </c>
       <c r="U42" t="n">
-        <v>216.2882692949636</v>
+        <v>76.92912168329944</v>
       </c>
       <c r="V42" t="n">
         <v>226.1116663261494</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.329874968531868</v>
+        <v>2.32987496853201</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>155.3344859367049</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>27.39133666058089</v>
+        <v>166.7832084459246</v>
       </c>
       <c r="T43" t="n">
-        <v>50.28249618896195</v>
+        <v>50.28249618896209</v>
       </c>
       <c r="U43" t="n">
-        <v>284.3033405953505</v>
+        <v>104.9134005663465</v>
       </c>
       <c r="V43" t="n">
-        <v>78.73801136815746</v>
+        <v>78.7380113681576</v>
       </c>
       <c r="W43" t="n">
-        <v>219.2413151318164</v>
+        <v>103.9048974387709</v>
       </c>
       <c r="X43" t="n">
-        <v>49.54999943457383</v>
+        <v>49.54999943457398</v>
       </c>
       <c r="Y43" t="n">
-        <v>40.42486719064152</v>
+        <v>40.42486719064166</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>210.7131640938348</v>
+        <v>210.7131640938349</v>
       </c>
       <c r="C44" t="n">
-        <v>198.7244810515165</v>
+        <v>198.7244810515167</v>
       </c>
       <c r="D44" t="n">
-        <v>189.7057850960445</v>
+        <v>189.7057850960447</v>
       </c>
       <c r="E44" t="n">
-        <v>211.44792266595</v>
+        <v>211.4479226659502</v>
       </c>
       <c r="F44" t="n">
-        <v>230.6197387539272</v>
+        <v>230.6197387539274</v>
       </c>
       <c r="G44" t="n">
-        <v>231.9400835378655</v>
+        <v>231.9400835378657</v>
       </c>
       <c r="H44" t="n">
-        <v>143.8260227936895</v>
+        <v>143.8260227936896</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>40.04234584801767</v>
+        <v>40.0423458480178</v>
       </c>
       <c r="U44" t="n">
-        <v>72.897509045063</v>
+        <v>72.89750904506315</v>
       </c>
       <c r="V44" t="n">
-        <v>154.2195413340139</v>
+        <v>154.2195413340141</v>
       </c>
       <c r="W44" t="n">
-        <v>179.5196408119708</v>
+        <v>179.519640811971</v>
       </c>
       <c r="X44" t="n">
-        <v>198.8198990447174</v>
+        <v>198.8198990447176</v>
       </c>
       <c r="Y44" t="n">
-        <v>210.2164968409162</v>
+        <v>210.2164968409163</v>
       </c>
     </row>
     <row r="45">
@@ -4068,13 +4068,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>127.1132721997666</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>95.77124205704071</v>
       </c>
       <c r="I45" t="n">
-        <v>56.40745017229531</v>
+        <v>5.336367639936432</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,10 +4104,10 @@
         <v>38.82520712046112</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>145.180098865789</v>
       </c>
       <c r="T45" t="n">
-        <v>152.4721574020113</v>
+        <v>185.4764132683503</v>
       </c>
       <c r="U45" t="n">
         <v>216.2882692949636</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.329874968531868</v>
+        <v>2.32987496853201</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>100.2066080565553</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4177,31 +4177,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>15.12980963648914</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>27.39133666058089</v>
+        <v>27.39133666058103</v>
       </c>
       <c r="T46" t="n">
-        <v>50.28249618896195</v>
+        <v>50.28249618896209</v>
       </c>
       <c r="U46" t="n">
-        <v>104.9134005663464</v>
+        <v>104.9134005663465</v>
       </c>
       <c r="V46" t="n">
-        <v>78.73801136815746</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
-        <v>103.9048974387707</v>
+        <v>103.9048974387709</v>
       </c>
       <c r="X46" t="n">
-        <v>164.8864171276195</v>
+        <v>49.54999943457398</v>
       </c>
       <c r="Y46" t="n">
-        <v>219.8148072196457</v>
+        <v>40.42486719064166</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>618.9540495841042</v>
+        <v>881.9460861350219</v>
       </c>
       <c r="C11" t="n">
-        <v>618.9540495841042</v>
+        <v>881.9460861350219</v>
       </c>
       <c r="D11" t="n">
-        <v>419.2509940713562</v>
+        <v>881.9460861350219</v>
       </c>
       <c r="E11" t="n">
-        <v>419.2509940713562</v>
+        <v>660.2812755011573</v>
       </c>
       <c r="F11" t="n">
-        <v>419.2509940713562</v>
+        <v>419.2509940713561</v>
       </c>
       <c r="G11" t="n">
-        <v>176.8870310416173</v>
+        <v>176.8870310416172</v>
       </c>
       <c r="H11" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="I11" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="J11" t="n">
-        <v>147.0265863185275</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="K11" t="n">
-        <v>147.0265863185275</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="L11" t="n">
-        <v>438.1753122677224</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="M11" t="n">
-        <v>725.250596185329</v>
+        <v>142.9531442869394</v>
       </c>
       <c r="N11" t="n">
-        <v>725.250596185329</v>
+        <v>434.1018702361345</v>
       </c>
       <c r="O11" t="n">
-        <v>725.250596185329</v>
+        <v>725.2505961853296</v>
       </c>
       <c r="P11" t="n">
-        <v>1016.399322134524</v>
+        <v>1016.399322134525</v>
       </c>
       <c r="Q11" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="R11" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="S11" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="T11" t="n">
-        <v>1127.830624330491</v>
+        <v>1127.830624330492</v>
       </c>
       <c r="U11" t="n">
-        <v>1046.115726444997</v>
+        <v>1127.830624330492</v>
       </c>
       <c r="V11" t="n">
-        <v>1028.789016630608</v>
+        <v>1102.868716393013</v>
       </c>
       <c r="W11" t="n">
-        <v>839.3749957482377</v>
+        <v>1102.868716393013</v>
       </c>
       <c r="X11" t="n">
-        <v>839.3749957482377</v>
+        <v>1102.868716393013</v>
       </c>
       <c r="Y11" t="n">
-        <v>618.9540495841042</v>
+        <v>1102.868716393013</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>97.20814695131418</v>
+        <v>120.2657981141175</v>
       </c>
       <c r="C12" t="n">
-        <v>97.20814695131418</v>
+        <v>120.2657981141175</v>
       </c>
       <c r="D12" t="n">
-        <v>97.20814695131418</v>
+        <v>120.2657981141175</v>
       </c>
       <c r="E12" t="n">
-        <v>23.52716977367232</v>
+        <v>120.2657981141175</v>
       </c>
       <c r="F12" t="n">
-        <v>23.52716977367232</v>
+        <v>120.2657981141175</v>
       </c>
       <c r="G12" t="n">
-        <v>23.52716977367232</v>
+        <v>120.2657981141175</v>
       </c>
       <c r="H12" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="I12" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="J12" t="n">
-        <v>114.4548830157154</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="K12" t="n">
-        <v>114.4548830157154</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="L12" t="n">
-        <v>114.4548830157154</v>
+        <v>314.6758957228674</v>
       </c>
       <c r="M12" t="n">
-        <v>405.6036089649103</v>
+        <v>314.6758957228674</v>
       </c>
       <c r="N12" t="n">
-        <v>696.7523349141052</v>
+        <v>605.8246216720626</v>
       </c>
       <c r="O12" t="n">
-        <v>977.1438671382658</v>
+        <v>896.9733476212577</v>
       </c>
       <c r="P12" t="n">
-        <v>977.1438671382658</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="Q12" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="R12" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683617</v>
       </c>
       <c r="S12" t="n">
-        <v>1176.358488683616</v>
+        <v>1029.711924172719</v>
       </c>
       <c r="T12" t="n">
-        <v>1162.129485551371</v>
+        <v>852.6467846728851</v>
       </c>
       <c r="U12" t="n">
-        <v>943.6564862635292</v>
+        <v>634.1737853850431</v>
       </c>
       <c r="V12" t="n">
-        <v>715.2608637118632</v>
+        <v>405.7781628333771</v>
       </c>
       <c r="W12" t="n">
-        <v>473.9449949451732</v>
+        <v>164.4622940666871</v>
       </c>
       <c r="X12" t="n">
-        <v>449.1489160829963</v>
+        <v>139.6662152045102</v>
       </c>
       <c r="Y12" t="n">
-        <v>256.6275897325751</v>
+        <v>120.2657981141175</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>23.52716977367232</v>
+        <v>256.5821584902806</v>
       </c>
       <c r="C13" t="n">
-        <v>23.52716977367232</v>
+        <v>256.5821584902806</v>
       </c>
       <c r="D13" t="n">
-        <v>23.52716977367232</v>
+        <v>256.5821584902806</v>
       </c>
       <c r="E13" t="n">
-        <v>23.52716977367232</v>
+        <v>256.5821584902806</v>
       </c>
       <c r="F13" t="n">
-        <v>23.52716977367232</v>
+        <v>104.1015035160577</v>
       </c>
       <c r="G13" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="H13" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="I13" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="J13" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367234</v>
       </c>
       <c r="K13" t="n">
-        <v>88.75452017135989</v>
+        <v>88.75452017135991</v>
       </c>
       <c r="L13" t="n">
-        <v>229.828360293676</v>
+        <v>229.8283602936761</v>
       </c>
       <c r="M13" t="n">
-        <v>390.4883917441604</v>
+        <v>390.4883917441605</v>
       </c>
       <c r="N13" t="n">
         <v>550.5627442088385</v>
@@ -5224,25 +5224,25 @@
         <v>783.3870097116667</v>
       </c>
       <c r="S13" t="n">
-        <v>687.7038630609894</v>
+        <v>747.6379425175688</v>
       </c>
       <c r="T13" t="n">
-        <v>455.7115032448621</v>
+        <v>688.7664919614699</v>
       </c>
       <c r="U13" t="n">
-        <v>341.6573209944354</v>
+        <v>574.7123097110433</v>
       </c>
       <c r="V13" t="n">
-        <v>254.0429258128864</v>
+        <v>487.0979145294944</v>
       </c>
       <c r="W13" t="n">
-        <v>141.007433590314</v>
+        <v>374.062422306922</v>
       </c>
       <c r="X13" t="n">
-        <v>82.87587874571818</v>
+        <v>315.9308674623263</v>
       </c>
       <c r="Y13" t="n">
-        <v>33.9616291980237</v>
+        <v>267.0166179146319</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>486.2222618373384</v>
+        <v>825.1930961870053</v>
       </c>
       <c r="C14" t="n">
-        <v>486.2222618373384</v>
+        <v>616.3802467798412</v>
       </c>
       <c r="D14" t="n">
-        <v>486.2222618373384</v>
+        <v>416.6771912670937</v>
       </c>
       <c r="E14" t="n">
-        <v>264.5574512034735</v>
+        <v>416.6771912670937</v>
       </c>
       <c r="F14" t="n">
-        <v>23.52716977367232</v>
+        <v>416.6771912670937</v>
       </c>
       <c r="G14" t="n">
-        <v>23.52716977367232</v>
+        <v>176.8870310416172</v>
       </c>
       <c r="H14" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="I14" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="J14" t="n">
-        <v>23.52716977367232</v>
+        <v>147.0265863185275</v>
       </c>
       <c r="K14" t="n">
-        <v>23.52716977367232</v>
+        <v>438.1753122677221</v>
       </c>
       <c r="L14" t="n">
-        <v>23.52716977367232</v>
+        <v>725.2505961853283</v>
       </c>
       <c r="M14" t="n">
-        <v>314.6758957228672</v>
+        <v>1016.399322134523</v>
       </c>
       <c r="N14" t="n">
-        <v>605.8246216720621</v>
+        <v>1016.399322134523</v>
       </c>
       <c r="O14" t="n">
-        <v>885.209762734421</v>
+        <v>1016.399322134523</v>
       </c>
       <c r="P14" t="n">
-        <v>1176.358488683616</v>
+        <v>1016.399322134523</v>
       </c>
       <c r="Q14" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="R14" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="S14" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="T14" t="n">
-        <v>1142.132175707224</v>
+        <v>1127.83062433049</v>
       </c>
       <c r="U14" t="n">
-        <v>1060.41727782173</v>
+        <v>1046.115726444996</v>
       </c>
       <c r="V14" t="n">
-        <v>896.5589129776996</v>
+        <v>1046.115726444996</v>
       </c>
       <c r="W14" t="n">
-        <v>707.1448920953291</v>
+        <v>1046.115726444996</v>
       </c>
       <c r="X14" t="n">
-        <v>707.1448920953291</v>
+        <v>1046.115726444996</v>
       </c>
       <c r="Y14" t="n">
-        <v>707.1448920953291</v>
+        <v>1046.115726444996</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>23.52716977367232</v>
+        <v>80.50439216993018</v>
       </c>
       <c r="C15" t="n">
-        <v>23.52716977367232</v>
+        <v>80.50439216993018</v>
       </c>
       <c r="D15" t="n">
-        <v>23.52716977367232</v>
+        <v>80.50439216993018</v>
       </c>
       <c r="E15" t="n">
-        <v>23.52716977367232</v>
+        <v>80.50439216993018</v>
       </c>
       <c r="F15" t="n">
-        <v>23.52716977367232</v>
+        <v>80.50439216993018</v>
       </c>
       <c r="G15" t="n">
-        <v>23.52716977367232</v>
+        <v>80.50439216993018</v>
       </c>
       <c r="H15" t="n">
-        <v>23.52716977367232</v>
+        <v>80.50439216993018</v>
       </c>
       <c r="I15" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="J15" t="n">
-        <v>114.4548830157154</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="K15" t="n">
-        <v>396.3714466953011</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="L15" t="n">
-        <v>396.3714466953011</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="M15" t="n">
-        <v>396.3714466953011</v>
+        <v>302.9123108360311</v>
       </c>
       <c r="N15" t="n">
-        <v>687.5201726444959</v>
+        <v>594.0610367852257</v>
       </c>
       <c r="O15" t="n">
-        <v>687.5201726444959</v>
+        <v>885.2097627344203</v>
       </c>
       <c r="P15" t="n">
-        <v>977.1438671382658</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="Q15" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="R15" t="n">
-        <v>1176.358488683616</v>
+        <v>1173.356200380999</v>
       </c>
       <c r="S15" t="n">
-        <v>1176.358488683616</v>
+        <v>1173.356200380999</v>
       </c>
       <c r="T15" t="n">
-        <v>989.0085762913428</v>
+        <v>986.0062879887264</v>
       </c>
       <c r="U15" t="n">
-        <v>770.5355770035007</v>
+        <v>767.5332887008843</v>
       </c>
       <c r="V15" t="n">
-        <v>542.1399544518347</v>
+        <v>539.1376661492183</v>
       </c>
       <c r="W15" t="n">
-        <v>300.8240856851447</v>
+        <v>297.8217973825283</v>
       </c>
       <c r="X15" t="n">
-        <v>276.0280068229678</v>
+        <v>99.90480926032285</v>
       </c>
       <c r="Y15" t="n">
-        <v>83.50668047254661</v>
+        <v>80.50439216993018</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>23.52716977367232</v>
+        <v>83.46124923025201</v>
       </c>
       <c r="C16" t="n">
-        <v>23.52716977367232</v>
+        <v>83.46124923025201</v>
       </c>
       <c r="D16" t="n">
-        <v>23.52716977367232</v>
+        <v>83.46124923025201</v>
       </c>
       <c r="E16" t="n">
-        <v>23.52716977367232</v>
+        <v>83.46124923025201</v>
       </c>
       <c r="F16" t="n">
-        <v>23.52716977367232</v>
+        <v>83.46124923025201</v>
       </c>
       <c r="G16" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="H16" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="I16" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="J16" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="K16" t="n">
-        <v>88.75452017135989</v>
+        <v>88.75452017135987</v>
       </c>
       <c r="L16" t="n">
         <v>229.828360293676</v>
@@ -5461,25 +5461,25 @@
         <v>783.3870097116667</v>
       </c>
       <c r="S16" t="n">
-        <v>747.6379425175688</v>
+        <v>574.5170332575403</v>
       </c>
       <c r="T16" t="n">
         <v>515.6455827014414</v>
       </c>
       <c r="U16" t="n">
-        <v>341.6573209944354</v>
+        <v>401.5914004510148</v>
       </c>
       <c r="V16" t="n">
-        <v>254.0429258128864</v>
+        <v>313.9770052694659</v>
       </c>
       <c r="W16" t="n">
-        <v>141.007433590314</v>
+        <v>200.9415130468935</v>
       </c>
       <c r="X16" t="n">
-        <v>82.87587874571818</v>
+        <v>142.8099582022978</v>
       </c>
       <c r="Y16" t="n">
-        <v>33.9616291980237</v>
+        <v>93.89570865460334</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>680.8463388340324</v>
+        <v>680.8463388340313</v>
       </c>
       <c r="C17" t="n">
-        <v>573.636098130352</v>
+        <v>573.6360981303509</v>
       </c>
       <c r="D17" t="n">
-        <v>475.5356513210879</v>
+        <v>475.5356513210867</v>
       </c>
       <c r="E17" t="n">
-        <v>355.4734493907069</v>
+        <v>355.4734493907058</v>
       </c>
       <c r="F17" t="n">
-        <v>216.0457766643895</v>
+        <v>216.0457766643883</v>
       </c>
       <c r="G17" t="n">
-        <v>75.2844223381334</v>
+        <v>75.2844223381335</v>
       </c>
       <c r="H17" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="I17" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="J17" t="n">
-        <v>147.0265863185275</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="K17" t="n">
-        <v>438.1753122677224</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="L17" t="n">
-        <v>594.0610367852262</v>
+        <v>314.675895722867</v>
       </c>
       <c r="M17" t="n">
-        <v>594.0610367852262</v>
+        <v>605.8246216720617</v>
       </c>
       <c r="N17" t="n">
-        <v>885.209762734421</v>
+        <v>885.2097627344203</v>
       </c>
       <c r="O17" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="P17" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="Q17" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="R17" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="S17" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="T17" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="U17" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="V17" t="n">
-        <v>1114.10273254307</v>
+        <v>1114.102732543068</v>
       </c>
       <c r="W17" t="n">
-        <v>1026.291320364183</v>
+        <v>1026.291320364182</v>
       </c>
       <c r="X17" t="n">
-        <v>918.9846978491887</v>
+        <v>918.9846978491879</v>
       </c>
       <c r="Y17" t="n">
-        <v>800.166360388539</v>
+        <v>800.1663603885381</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>605.7912875357599</v>
+        <v>508.7300092430535</v>
       </c>
       <c r="C18" t="n">
-        <v>444.0876147767146</v>
+        <v>347.0263364840082</v>
       </c>
       <c r="D18" t="n">
-        <v>305.2489777669267</v>
+        <v>267.2938080572462</v>
       </c>
       <c r="E18" t="n">
-        <v>158.220967823798</v>
+        <v>120.2657981141175</v>
       </c>
       <c r="F18" t="n">
-        <v>23.52716977367232</v>
+        <v>120.2657981141175</v>
       </c>
       <c r="G18" t="n">
-        <v>23.52716977367232</v>
+        <v>120.2657981141175</v>
       </c>
       <c r="H18" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="I18" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="J18" t="n">
-        <v>114.4548830157154</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="K18" t="n">
-        <v>396.3714466953011</v>
+        <v>305.443733453258</v>
       </c>
       <c r="L18" t="n">
-        <v>687.5201726444959</v>
+        <v>596.5924594024527</v>
       </c>
       <c r="M18" t="n">
-        <v>977.1438671382658</v>
+        <v>596.5924594024527</v>
       </c>
       <c r="N18" t="n">
-        <v>977.1438671382658</v>
+        <v>596.5924594024527</v>
       </c>
       <c r="O18" t="n">
-        <v>977.1438671382658</v>
+        <v>887.7411853516473</v>
       </c>
       <c r="P18" t="n">
-        <v>977.1438671382658</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="Q18" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="R18" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="S18" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="T18" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="U18" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="V18" t="n">
-        <v>1176.358488683616</v>
+        <v>947.9628661319489</v>
       </c>
       <c r="W18" t="n">
-        <v>1155.649044789647</v>
+        <v>706.6469973652589</v>
       </c>
       <c r="X18" t="n">
-        <v>957.732056667442</v>
+        <v>508.7300092430535</v>
       </c>
       <c r="Y18" t="n">
-        <v>765.2107303170208</v>
+        <v>508.7300092430535</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>346.2150324842293</v>
+        <v>217.021968288241</v>
       </c>
       <c r="C19" t="n">
-        <v>176.5990629459096</v>
+        <v>217.021968288241</v>
       </c>
       <c r="D19" t="n">
-        <v>23.52716977367232</v>
+        <v>63.95007511600374</v>
       </c>
       <c r="E19" t="n">
-        <v>23.52716977367232</v>
+        <v>63.95007511600374</v>
       </c>
       <c r="F19" t="n">
-        <v>23.52716977367232</v>
+        <v>63.95007511600374</v>
       </c>
       <c r="G19" t="n">
-        <v>23.52716977367232</v>
+        <v>63.95007511600374</v>
       </c>
       <c r="H19" t="n">
-        <v>23.52716977367232</v>
+        <v>63.95007511600374</v>
       </c>
       <c r="I19" t="n">
-        <v>23.52716977367232</v>
+        <v>63.95007511600374</v>
       </c>
       <c r="J19" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="K19" t="n">
-        <v>88.75452017135989</v>
+        <v>88.75452017135987</v>
       </c>
       <c r="L19" t="n">
         <v>229.828360293676</v>
@@ -5692,31 +5692,31 @@
         <v>783.3870097116667</v>
       </c>
       <c r="Q19" t="n">
-        <v>783.3870097116667</v>
+        <v>768.104373715213</v>
       </c>
       <c r="R19" t="n">
-        <v>783.3870097116667</v>
+        <v>631.0695940297751</v>
       </c>
       <c r="S19" t="n">
-        <v>783.3870097116667</v>
+        <v>631.0695940297751</v>
       </c>
       <c r="T19" t="n">
-        <v>783.3870097116667</v>
+        <v>399.0772342136477</v>
       </c>
       <c r="U19" t="n">
-        <v>770.9354361647239</v>
+        <v>386.6256606667048</v>
       </c>
       <c r="V19" t="n">
-        <v>510.2001317231465</v>
+        <v>386.6256606667048</v>
       </c>
       <c r="W19" t="n">
-        <v>498.767248204058</v>
+        <v>375.1927771476161</v>
       </c>
       <c r="X19" t="n">
-        <v>346.2150324842293</v>
+        <v>375.1927771476161</v>
       </c>
       <c r="Y19" t="n">
-        <v>346.2150324842293</v>
+        <v>375.1927771476161</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>680.8463388340319</v>
+        <v>680.8463388340303</v>
       </c>
       <c r="C20" t="n">
-        <v>573.6360981303517</v>
+        <v>573.63609813035</v>
       </c>
       <c r="D20" t="n">
-        <v>475.5356513210876</v>
+        <v>475.5356513210859</v>
       </c>
       <c r="E20" t="n">
-        <v>355.4734493907068</v>
+        <v>355.4734493907054</v>
       </c>
       <c r="F20" t="n">
-        <v>216.0457766643895</v>
+        <v>216.0457766643879</v>
       </c>
       <c r="G20" t="n">
-        <v>75.2844223381334</v>
+        <v>75.28442233813348</v>
       </c>
       <c r="H20" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="I20" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="J20" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="K20" t="n">
-        <v>314.6758957228672</v>
+        <v>142.9531442869389</v>
       </c>
       <c r="L20" t="n">
-        <v>594.0610367852262</v>
+        <v>142.9531442869389</v>
       </c>
       <c r="M20" t="n">
-        <v>885.209762734421</v>
+        <v>434.1018702361336</v>
       </c>
       <c r="N20" t="n">
-        <v>885.209762734421</v>
+        <v>434.1018702361336</v>
       </c>
       <c r="O20" t="n">
-        <v>885.209762734421</v>
+        <v>725.2505961853283</v>
       </c>
       <c r="P20" t="n">
-        <v>1176.358488683616</v>
+        <v>1016.399322134523</v>
       </c>
       <c r="Q20" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="R20" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="S20" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="T20" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="U20" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="V20" t="n">
-        <v>1114.10273254307</v>
+        <v>1114.102732543068</v>
       </c>
       <c r="W20" t="n">
-        <v>1026.291320364183</v>
+        <v>1026.291320364182</v>
       </c>
       <c r="X20" t="n">
-        <v>918.9846978491885</v>
+        <v>918.9846978491873</v>
       </c>
       <c r="Y20" t="n">
-        <v>800.1663603885388</v>
+        <v>800.1663603885373</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>605.7912875357599</v>
+        <v>305.6402651566042</v>
       </c>
       <c r="C21" t="n">
-        <v>444.0876147767146</v>
+        <v>305.6402651566042</v>
       </c>
       <c r="D21" t="n">
-        <v>305.2489777669267</v>
+        <v>305.6402651566042</v>
       </c>
       <c r="E21" t="n">
-        <v>158.220967823798</v>
+        <v>305.6402651566042</v>
       </c>
       <c r="F21" t="n">
-        <v>23.52716977367232</v>
+        <v>305.6402651566042</v>
       </c>
       <c r="G21" t="n">
-        <v>23.52716977367232</v>
+        <v>177.2430205103753</v>
       </c>
       <c r="H21" t="n">
-        <v>23.52716977367232</v>
+        <v>80.50439216993018</v>
       </c>
       <c r="I21" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="J21" t="n">
-        <v>114.4548830157154</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="K21" t="n">
-        <v>396.3714466953011</v>
+        <v>305.443733453258</v>
       </c>
       <c r="L21" t="n">
-        <v>396.3714466953011</v>
+        <v>596.5924594024527</v>
       </c>
       <c r="M21" t="n">
-        <v>396.3714466953011</v>
+        <v>887.7411853516473</v>
       </c>
       <c r="N21" t="n">
-        <v>685.9951411890709</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="O21" t="n">
-        <v>977.1438671382658</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="P21" t="n">
-        <v>977.1438671382658</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="Q21" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="R21" t="n">
-        <v>1155.649044789647</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="S21" t="n">
-        <v>1155.649044789647</v>
+        <v>1029.711924172717</v>
       </c>
       <c r="T21" t="n">
-        <v>1155.649044789647</v>
+        <v>842.3620117804438</v>
       </c>
       <c r="U21" t="n">
-        <v>1155.649044789647</v>
+        <v>775.3517564749602</v>
       </c>
       <c r="V21" t="n">
-        <v>1155.649044789647</v>
+        <v>546.9561339232941</v>
       </c>
       <c r="W21" t="n">
-        <v>1155.649044789647</v>
+        <v>305.6402651566042</v>
       </c>
       <c r="X21" t="n">
-        <v>957.732056667442</v>
+        <v>305.6402651566042</v>
       </c>
       <c r="Y21" t="n">
-        <v>765.2107303170208</v>
+        <v>305.6402651566042</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>385.0727653808845</v>
+        <v>637.9071215174899</v>
       </c>
       <c r="C22" t="n">
-        <v>385.0727653808845</v>
+        <v>468.2911519791702</v>
       </c>
       <c r="D22" t="n">
-        <v>385.0727653808845</v>
+        <v>468.2911519791702</v>
       </c>
       <c r="E22" t="n">
-        <v>385.0727653808845</v>
+        <v>316.282137740489</v>
       </c>
       <c r="F22" t="n">
-        <v>232.5921104066616</v>
+        <v>316.282137740489</v>
       </c>
       <c r="G22" t="n">
-        <v>63.95007511600376</v>
+        <v>316.282137740489</v>
       </c>
       <c r="H22" t="n">
-        <v>63.95007511600376</v>
+        <v>159.3786165923023</v>
       </c>
       <c r="I22" t="n">
-        <v>63.95007511600376</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="J22" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="K22" t="n">
-        <v>88.75452017135989</v>
+        <v>88.75452017135987</v>
       </c>
       <c r="L22" t="n">
         <v>229.828360293676</v>
@@ -5938,22 +5938,22 @@
         <v>768.104373715213</v>
       </c>
       <c r="T22" t="n">
-        <v>536.1120138990856</v>
+        <v>768.104373715213</v>
       </c>
       <c r="U22" t="n">
-        <v>396.505648899973</v>
+        <v>755.6528001682701</v>
       </c>
       <c r="V22" t="n">
-        <v>396.505648899973</v>
+        <v>755.6528001682701</v>
       </c>
       <c r="W22" t="n">
-        <v>385.0727653808845</v>
+        <v>744.2199166491814</v>
       </c>
       <c r="X22" t="n">
-        <v>385.0727653808845</v>
+        <v>744.2199166491814</v>
       </c>
       <c r="Y22" t="n">
-        <v>385.0727653808845</v>
+        <v>637.9071215174899</v>
       </c>
     </row>
     <row r="23">
@@ -5969,55 +5969,55 @@
         <v>573.6360981303508</v>
       </c>
       <c r="D23" t="n">
-        <v>475.5356513210866</v>
+        <v>475.5356513210867</v>
       </c>
       <c r="E23" t="n">
-        <v>355.4734493907058</v>
+        <v>355.4734493907059</v>
       </c>
       <c r="F23" t="n">
-        <v>216.0457766643884</v>
+        <v>216.0457766643885</v>
       </c>
       <c r="G23" t="n">
-        <v>75.2844223381334</v>
+        <v>75.28442233813337</v>
       </c>
       <c r="H23" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="I23" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="J23" t="n">
-        <v>147.0265863185275</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="K23" t="n">
-        <v>438.1753122677224</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="L23" t="n">
-        <v>729.3240382169173</v>
+        <v>314.675895722867</v>
       </c>
       <c r="M23" t="n">
-        <v>885.209762734421</v>
+        <v>605.8246216720617</v>
       </c>
       <c r="N23" t="n">
-        <v>1176.358488683616</v>
+        <v>896.9733476212564</v>
       </c>
       <c r="O23" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="P23" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="Q23" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="R23" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="S23" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="T23" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="U23" t="n">
         <v>1176.358488683615</v>
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>605.9447202640918</v>
+        <v>824.4177195519328</v>
       </c>
       <c r="C24" t="n">
-        <v>444.2410475050465</v>
+        <v>662.7140467928875</v>
       </c>
       <c r="D24" t="n">
-        <v>305.4024104952586</v>
+        <v>523.8754097830996</v>
       </c>
       <c r="E24" t="n">
-        <v>158.3744005521298</v>
+        <v>376.8473998399708</v>
       </c>
       <c r="F24" t="n">
-        <v>23.68060250200412</v>
+        <v>242.1536017898452</v>
       </c>
       <c r="G24" t="n">
-        <v>23.52716977367232</v>
+        <v>113.7563571436163</v>
       </c>
       <c r="H24" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="I24" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="J24" t="n">
         <v>114.4548830157154</v>
@@ -6072,46 +6072,46 @@
         <v>396.3714466953011</v>
       </c>
       <c r="L24" t="n">
-        <v>685.9951411890709</v>
+        <v>687.5201726444957</v>
       </c>
       <c r="M24" t="n">
-        <v>685.9951411890709</v>
+        <v>977.1438671382649</v>
       </c>
       <c r="N24" t="n">
-        <v>685.9951411890709</v>
+        <v>977.1438671382649</v>
       </c>
       <c r="O24" t="n">
-        <v>685.9951411890709</v>
+        <v>977.1438671382649</v>
       </c>
       <c r="P24" t="n">
-        <v>977.1438671382658</v>
+        <v>977.1438671382649</v>
       </c>
       <c r="Q24" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="R24" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="S24" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="T24" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="U24" t="n">
-        <v>957.8854893957738</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="V24" t="n">
-        <v>957.8854893957738</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="W24" t="n">
-        <v>957.8854893957738</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="X24" t="n">
-        <v>957.8854893957738</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="Y24" t="n">
-        <v>765.3641630453526</v>
+        <v>983.8371623331938</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>220.8535962641906</v>
+        <v>541.9762865290713</v>
       </c>
       <c r="C25" t="n">
-        <v>220.8535962641906</v>
+        <v>541.9762865290713</v>
       </c>
       <c r="D25" t="n">
-        <v>220.8535962641906</v>
+        <v>541.9762865290713</v>
       </c>
       <c r="E25" t="n">
-        <v>220.8535962641906</v>
+        <v>541.9762865290713</v>
       </c>
       <c r="F25" t="n">
-        <v>220.8535962641906</v>
+        <v>389.4956315548484</v>
       </c>
       <c r="G25" t="n">
-        <v>220.8535962641906</v>
+        <v>220.8535962641905</v>
       </c>
       <c r="H25" t="n">
-        <v>63.95007511600376</v>
+        <v>63.95007511600374</v>
       </c>
       <c r="I25" t="n">
-        <v>63.95007511600376</v>
+        <v>63.95007511600374</v>
       </c>
       <c r="J25" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="K25" t="n">
-        <v>88.75452017135989</v>
+        <v>88.75452017135987</v>
       </c>
       <c r="L25" t="n">
         <v>229.828360293676</v>
@@ -6169,28 +6169,28 @@
         <v>768.104373715213</v>
       </c>
       <c r="R25" t="n">
-        <v>631.0695940297751</v>
+        <v>768.104373715213</v>
       </c>
       <c r="S25" t="n">
-        <v>422.1996175756487</v>
+        <v>768.104373715213</v>
       </c>
       <c r="T25" t="n">
-        <v>244.7380533302219</v>
+        <v>768.104373715213</v>
       </c>
       <c r="U25" t="n">
-        <v>232.2864797832791</v>
+        <v>755.6528001682702</v>
       </c>
       <c r="V25" t="n">
-        <v>232.2864797832791</v>
+        <v>755.6528001682702</v>
       </c>
       <c r="W25" t="n">
-        <v>220.8535962641906</v>
+        <v>725.5316552134511</v>
       </c>
       <c r="X25" t="n">
-        <v>220.8535962641906</v>
+        <v>725.5316552134511</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8535962641906</v>
+        <v>725.5316552134511</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>1530.85321702315</v>
       </c>
       <c r="D26" t="n">
-        <v>1260.04422663446</v>
+        <v>1260.044226634461</v>
       </c>
       <c r="E26" t="n">
-        <v>967.2734811246538</v>
+        <v>967.2734811246542</v>
       </c>
       <c r="F26" t="n">
-        <v>655.1372648189109</v>
+        <v>655.1372648189111</v>
       </c>
       <c r="G26" t="n">
-        <v>341.6673669132302</v>
+        <v>341.6673669132306</v>
       </c>
       <c r="H26" t="n">
         <v>117.2015707693439</v>
@@ -6224,31 +6224,31 @@
         <v>70.26774871838823</v>
       </c>
       <c r="J26" t="n">
-        <v>293.7520416570868</v>
+        <v>193.7671652632434</v>
       </c>
       <c r="K26" t="n">
-        <v>711.0637474076111</v>
+        <v>611.0788710137678</v>
       </c>
       <c r="L26" t="n">
-        <v>1254.690622475248</v>
+        <v>1095.189966302888</v>
       </c>
       <c r="M26" t="n">
-        <v>1854.462361416258</v>
+        <v>1694.961705243898</v>
       </c>
       <c r="N26" t="n">
-        <v>2441.05034591012</v>
+        <v>2281.549689737761</v>
       </c>
       <c r="O26" t="n">
-        <v>2888.761969742974</v>
+        <v>2788.77709334913</v>
       </c>
       <c r="P26" t="n">
-        <v>3204.176584973219</v>
+        <v>3204.176584973218</v>
       </c>
       <c r="Q26" t="n">
         <v>3464.120627916154</v>
       </c>
       <c r="R26" t="n">
-        <v>3513.387435919412</v>
+        <v>3513.387435919411</v>
       </c>
       <c r="S26" t="n">
         <v>3442.28150104347</v>
@@ -6303,22 +6303,22 @@
         <v>70.26774871838823</v>
       </c>
       <c r="J27" t="n">
-        <v>70.26774871838823</v>
+        <v>161.1954619604313</v>
       </c>
       <c r="K27" t="n">
-        <v>113.047166786799</v>
+        <v>161.1954619604313</v>
       </c>
       <c r="L27" t="n">
-        <v>549.3622536785582</v>
+        <v>597.5105488521905</v>
       </c>
       <c r="M27" t="n">
-        <v>1116.657895326535</v>
+        <v>1164.806190500168</v>
       </c>
       <c r="N27" t="n">
-        <v>1712.363067575336</v>
+        <v>1760.511362748969</v>
       </c>
       <c r="O27" t="n">
-        <v>2181.808688164032</v>
+        <v>2229.956983337664</v>
       </c>
       <c r="P27" t="n">
         <v>2545.901067556423</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>444.7374632107166</v>
+        <v>444.7374632107161</v>
       </c>
       <c r="C28" t="n">
-        <v>377.1364680564836</v>
+        <v>377.1364680564832</v>
       </c>
       <c r="D28" t="n">
-        <v>326.0795492683331</v>
+        <v>326.0795492683328</v>
       </c>
       <c r="E28" t="n">
-        <v>276.0855094137387</v>
+        <v>276.0855094137384</v>
       </c>
       <c r="F28" t="n">
-        <v>225.6198288236025</v>
+        <v>225.6198288236023</v>
       </c>
       <c r="G28" t="n">
-        <v>158.9927679170314</v>
+        <v>158.9927679170313</v>
       </c>
       <c r="H28" t="n">
-        <v>104.1042211529314</v>
+        <v>104.1042211529313</v>
       </c>
       <c r="I28" t="n">
         <v>70.26774871838823</v>
       </c>
       <c r="J28" t="n">
-        <v>130.6341355862126</v>
+        <v>130.6341355862127</v>
       </c>
       <c r="K28" t="n">
-        <v>295.8463623777436</v>
+        <v>295.8463623777437</v>
       </c>
       <c r="L28" t="n">
-        <v>536.9050788939032</v>
+        <v>536.9050788939034</v>
       </c>
       <c r="M28" t="n">
-        <v>797.549986738231</v>
+        <v>797.5499867382312</v>
       </c>
       <c r="N28" t="n">
-        <v>1057.609215596752</v>
+        <v>1057.609215596753</v>
       </c>
       <c r="O28" t="n">
-        <v>1294.530111954951</v>
+        <v>1294.53011195495</v>
       </c>
       <c r="P28" t="n">
-        <v>1490.403233887269</v>
+        <v>1490.403233887267</v>
       </c>
       <c r="Q28" t="n">
-        <v>1575.409598740988</v>
+        <v>1575.409598740987</v>
       </c>
       <c r="R28" t="n">
-        <v>1540.389793439637</v>
+        <v>1540.389793439636</v>
       </c>
       <c r="S28" t="n">
-        <v>1433.534791369597</v>
+        <v>1433.534791369596</v>
       </c>
       <c r="T28" t="n">
         <v>1303.557405937556</v>
       </c>
       <c r="U28" t="n">
-        <v>1118.397288811188</v>
+        <v>1118.397288811187</v>
       </c>
       <c r="V28" t="n">
-        <v>959.6769587536976</v>
+        <v>959.6769587536968</v>
       </c>
       <c r="W28" t="n">
-        <v>775.5355316551834</v>
+        <v>775.5355316551827</v>
       </c>
       <c r="X28" t="n">
-        <v>646.2980419346459</v>
+        <v>646.2980419346452</v>
       </c>
       <c r="Y28" t="n">
-        <v>526.2778575110096</v>
+        <v>526.2778575110091</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1810.772001306257</v>
+        <v>1810.772001306256</v>
       </c>
       <c r="C29" t="n">
-        <v>1530.853217023151</v>
+        <v>1530.85321702315</v>
       </c>
       <c r="D29" t="n">
-        <v>1260.044226634461</v>
+        <v>1260.04422663446</v>
       </c>
       <c r="E29" t="n">
-        <v>967.2734811246547</v>
+        <v>967.2734811246542</v>
       </c>
       <c r="F29" t="n">
         <v>655.1372648189113</v>
@@ -6455,58 +6455,58 @@
         <v>341.6673669132307</v>
       </c>
       <c r="H29" t="n">
-        <v>117.2015707693439</v>
+        <v>117.2015707693438</v>
       </c>
       <c r="I29" t="n">
-        <v>70.26774871838825</v>
+        <v>70.26774871838822</v>
       </c>
       <c r="J29" t="n">
-        <v>193.7671652632435</v>
+        <v>193.7671652632434</v>
       </c>
       <c r="K29" t="n">
-        <v>611.0788710137679</v>
+        <v>551.5630912352507</v>
       </c>
       <c r="L29" t="n">
-        <v>1095.189966302889</v>
+        <v>1095.189966302888</v>
       </c>
       <c r="M29" t="n">
-        <v>1694.961705243899</v>
+        <v>1694.961705243898</v>
       </c>
       <c r="N29" t="n">
-        <v>2281.549689737762</v>
+        <v>2281.54968973776</v>
       </c>
       <c r="O29" t="n">
-        <v>2788.777093349131</v>
+        <v>2788.777093349129</v>
       </c>
       <c r="P29" t="n">
-        <v>3204.176584973219</v>
+        <v>3204.176584973218</v>
       </c>
       <c r="Q29" t="n">
-        <v>3464.120627916155</v>
+        <v>3464.120627916153</v>
       </c>
       <c r="R29" t="n">
-        <v>3513.387435919412</v>
+        <v>3513.387435919411</v>
       </c>
       <c r="S29" t="n">
-        <v>3442.281501043471</v>
+        <v>3442.281501043469</v>
       </c>
       <c r="T29" t="n">
-        <v>3322.647701814404</v>
+        <v>3322.647701814403</v>
       </c>
       <c r="U29" t="n">
-        <v>3169.826869052969</v>
+        <v>3169.826869052968</v>
       </c>
       <c r="V29" t="n">
-        <v>2934.862569332997</v>
+        <v>2934.862569332995</v>
       </c>
       <c r="W29" t="n">
-        <v>2674.342613574684</v>
+        <v>2674.342613574683</v>
       </c>
       <c r="X29" t="n">
-        <v>2394.327447480264</v>
+        <v>2394.327447480263</v>
       </c>
       <c r="Y29" t="n">
-        <v>2102.800566440189</v>
+        <v>2102.800566440188</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6537,16 @@
         <v>127.2449711146461</v>
       </c>
       <c r="I30" t="n">
-        <v>70.26774871838825</v>
+        <v>70.26774871838822</v>
       </c>
       <c r="J30" t="n">
-        <v>70.26774871838825</v>
+        <v>161.1954619604313</v>
       </c>
       <c r="K30" t="n">
-        <v>113.0471667867986</v>
+        <v>443.112025640017</v>
       </c>
       <c r="L30" t="n">
-        <v>549.3622536785579</v>
+        <v>879.4271125317762</v>
       </c>
       <c r="M30" t="n">
         <v>1116.657895326535</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>444.737463210716</v>
+        <v>444.7374632107161</v>
       </c>
       <c r="C31" t="n">
-        <v>377.1364680564831</v>
+        <v>377.1364680564832</v>
       </c>
       <c r="D31" t="n">
-        <v>326.0795492683325</v>
+        <v>326.0795492683328</v>
       </c>
       <c r="E31" t="n">
-        <v>276.0855094137381</v>
+        <v>276.0855094137384</v>
       </c>
       <c r="F31" t="n">
-        <v>225.619828823602</v>
+        <v>225.6198288236023</v>
       </c>
       <c r="G31" t="n">
-        <v>158.9927679170309</v>
+        <v>158.9927679170313</v>
       </c>
       <c r="H31" t="n">
-        <v>104.1042211529309</v>
+        <v>104.1042211529314</v>
       </c>
       <c r="I31" t="n">
-        <v>70.26774871838825</v>
+        <v>70.26774871838822</v>
       </c>
       <c r="J31" t="n">
-        <v>130.6341355862123</v>
+        <v>130.6341355862128</v>
       </c>
       <c r="K31" t="n">
-        <v>295.8463623777434</v>
+        <v>295.8463623777438</v>
       </c>
       <c r="L31" t="n">
-        <v>536.905078893903</v>
+        <v>536.9050788939035</v>
       </c>
       <c r="M31" t="n">
-        <v>797.5499867382309</v>
+        <v>797.5499867382314</v>
       </c>
       <c r="N31" t="n">
-        <v>1057.609215596752</v>
+        <v>1057.609215596753</v>
       </c>
       <c r="O31" t="n">
         <v>1294.53011195495</v>
@@ -6646,19 +6646,19 @@
         <v>1540.389793439636</v>
       </c>
       <c r="S31" t="n">
-        <v>1433.534791369597</v>
+        <v>1433.534791369596</v>
       </c>
       <c r="T31" t="n">
         <v>1303.557405937556</v>
       </c>
       <c r="U31" t="n">
-        <v>1118.397288811188</v>
+        <v>1118.397288811187</v>
       </c>
       <c r="V31" t="n">
-        <v>959.6769587536969</v>
+        <v>959.6769587536967</v>
       </c>
       <c r="W31" t="n">
-        <v>775.5355316551828</v>
+        <v>775.5355316551827</v>
       </c>
       <c r="X31" t="n">
         <v>646.2980419346453</v>
@@ -6680,70 +6680,70 @@
         <v>1530.85321702315</v>
       </c>
       <c r="D32" t="n">
-        <v>1260.044226634461</v>
+        <v>1260.04422663446</v>
       </c>
       <c r="E32" t="n">
-        <v>967.2734811246544</v>
+        <v>967.2734811246542</v>
       </c>
       <c r="F32" t="n">
-        <v>655.1372648189116</v>
+        <v>655.1372648189115</v>
       </c>
       <c r="G32" t="n">
-        <v>341.667366913231</v>
+        <v>341.6673669132302</v>
       </c>
       <c r="H32" t="n">
-        <v>117.2015707693439</v>
+        <v>117.2015707693438</v>
       </c>
       <c r="I32" t="n">
-        <v>70.26774871838823</v>
+        <v>70.26774871838822</v>
       </c>
       <c r="J32" t="n">
-        <v>234.2362618785702</v>
+        <v>293.7520416570869</v>
       </c>
       <c r="K32" t="n">
-        <v>551.5630912352511</v>
+        <v>611.0788710137679</v>
       </c>
       <c r="L32" t="n">
-        <v>1095.189966302888</v>
+        <v>1154.705746081405</v>
       </c>
       <c r="M32" t="n">
-        <v>1694.961705243898</v>
+        <v>1754.477485022415</v>
       </c>
       <c r="N32" t="n">
-        <v>2281.549689737761</v>
+        <v>2341.065469516278</v>
       </c>
       <c r="O32" t="n">
-        <v>2788.77709334913</v>
+        <v>2848.292873127647</v>
       </c>
       <c r="P32" t="n">
-        <v>3204.176584973218</v>
+        <v>3263.692364751736</v>
       </c>
       <c r="Q32" t="n">
-        <v>3464.120627916154</v>
+        <v>3464.120627916153</v>
       </c>
       <c r="R32" t="n">
         <v>3513.387435919411</v>
       </c>
       <c r="S32" t="n">
-        <v>3442.28150104347</v>
+        <v>3442.281501043469</v>
       </c>
       <c r="T32" t="n">
-        <v>3322.647701814404</v>
+        <v>3322.647701814403</v>
       </c>
       <c r="U32" t="n">
-        <v>3169.826869052968</v>
+        <v>3169.826869052967</v>
       </c>
       <c r="V32" t="n">
-        <v>2934.862569332996</v>
+        <v>2934.862569332995</v>
       </c>
       <c r="W32" t="n">
-        <v>2674.342613574684</v>
+        <v>2674.342613574683</v>
       </c>
       <c r="X32" t="n">
-        <v>2394.327447480264</v>
+        <v>2394.327447480263</v>
       </c>
       <c r="Y32" t="n">
-        <v>2102.800566440189</v>
+        <v>2102.800566440188</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>127.2449711146461</v>
       </c>
       <c r="I33" t="n">
-        <v>70.26774871838823</v>
+        <v>70.26774871838822</v>
       </c>
       <c r="J33" t="n">
         <v>161.1954619604313</v>
@@ -6786,10 +6786,10 @@
         <v>879.4271125317762</v>
       </c>
       <c r="M33" t="n">
-        <v>1446.722754179753</v>
+        <v>1386.888894369881</v>
       </c>
       <c r="N33" t="n">
-        <v>1513.148446029986</v>
+        <v>1982.594066618682</v>
       </c>
       <c r="O33" t="n">
         <v>1982.594066618682</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>444.7374632107162</v>
+        <v>444.7374632107155</v>
       </c>
       <c r="C34" t="n">
-        <v>377.1364680564834</v>
+        <v>377.1364680564827</v>
       </c>
       <c r="D34" t="n">
-        <v>326.0795492683329</v>
+        <v>326.0795492683324</v>
       </c>
       <c r="E34" t="n">
-        <v>276.0855094137385</v>
+        <v>276.0855094137381</v>
       </c>
       <c r="F34" t="n">
-        <v>225.6198288236025</v>
+        <v>225.6198288236021</v>
       </c>
       <c r="G34" t="n">
-        <v>158.9927679170314</v>
+        <v>158.9927679170311</v>
       </c>
       <c r="H34" t="n">
-        <v>104.1042211529314</v>
+        <v>104.1042211529312</v>
       </c>
       <c r="I34" t="n">
-        <v>70.26774871838823</v>
+        <v>70.26774871838822</v>
       </c>
       <c r="J34" t="n">
-        <v>130.6341355862128</v>
+        <v>130.6341355862127</v>
       </c>
       <c r="K34" t="n">
         <v>295.8463623777438</v>
       </c>
       <c r="L34" t="n">
-        <v>536.9050788939035</v>
+        <v>536.9050788939015</v>
       </c>
       <c r="M34" t="n">
-        <v>797.5499867382314</v>
+        <v>797.5499867382294</v>
       </c>
       <c r="N34" t="n">
-        <v>1057.609215596753</v>
+        <v>1057.609215596751</v>
       </c>
       <c r="O34" t="n">
-        <v>1294.53011195495</v>
+        <v>1294.530111954949</v>
       </c>
       <c r="P34" t="n">
-        <v>1490.403233887268</v>
+        <v>1490.403233887266</v>
       </c>
       <c r="Q34" t="n">
-        <v>1575.409598740987</v>
+        <v>1575.409598740986</v>
       </c>
       <c r="R34" t="n">
-        <v>1540.389793439636</v>
+        <v>1540.389793439635</v>
       </c>
       <c r="S34" t="n">
-        <v>1433.534791369596</v>
+        <v>1433.534791369595</v>
       </c>
       <c r="T34" t="n">
         <v>1303.557405937555</v>
       </c>
       <c r="U34" t="n">
-        <v>1118.397288811188</v>
+        <v>1118.397288811186</v>
       </c>
       <c r="V34" t="n">
-        <v>959.6769587536969</v>
+        <v>959.6769587536959</v>
       </c>
       <c r="W34" t="n">
-        <v>775.5355316551829</v>
+        <v>775.5355316551819</v>
       </c>
       <c r="X34" t="n">
-        <v>646.2980419346453</v>
+        <v>646.2980419346445</v>
       </c>
       <c r="Y34" t="n">
-        <v>526.2778575110092</v>
+        <v>526.2778575110085</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1262.714903950991</v>
+        <v>1262.71490395099</v>
       </c>
       <c r="C35" t="n">
-        <v>1062.395470589658</v>
+        <v>1062.395470589657</v>
       </c>
       <c r="D35" t="n">
-        <v>871.1858311227413</v>
+        <v>871.1858311227406</v>
       </c>
       <c r="E35" t="n">
-        <v>658.0144365347078</v>
+        <v>658.0144365347071</v>
       </c>
       <c r="F35" t="n">
-        <v>425.4775711507377</v>
+        <v>425.4775711507372</v>
       </c>
       <c r="G35" t="n">
-        <v>191.6070241668297</v>
+        <v>191.6070241668296</v>
       </c>
       <c r="H35" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471587</v>
       </c>
       <c r="I35" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471587</v>
       </c>
       <c r="J35" t="n">
-        <v>170.2399954895711</v>
+        <v>46.74057894471587</v>
       </c>
       <c r="K35" t="n">
-        <v>487.566824846252</v>
+        <v>364.0674083013968</v>
       </c>
       <c r="L35" t="n">
-        <v>931.2088235200458</v>
+        <v>807.7094069751906</v>
       </c>
       <c r="M35" t="n">
-        <v>1430.995686067212</v>
+        <v>1307.496269522357</v>
       </c>
       <c r="N35" t="n">
-        <v>1917.598794167231</v>
+        <v>1794.099377622376</v>
       </c>
       <c r="O35" t="n">
-        <v>2324.841321384757</v>
+        <v>2201.341904839901</v>
       </c>
       <c r="P35" t="n">
-        <v>2337.028947235795</v>
+        <v>2337.028947235794</v>
       </c>
       <c r="Q35" t="n">
-        <v>2337.028947235795</v>
+        <v>2337.028947235794</v>
       </c>
       <c r="R35" t="n">
-        <v>2337.028947235795</v>
+        <v>2337.028947235794</v>
       </c>
       <c r="S35" t="n">
-        <v>2337.028947235795</v>
+        <v>2337.028947235794</v>
       </c>
       <c r="T35" t="n">
-        <v>2296.994498928501</v>
+        <v>2296.9944989285</v>
       </c>
       <c r="U35" t="n">
-        <v>2223.773017088838</v>
+        <v>2223.773017088837</v>
       </c>
       <c r="V35" t="n">
-        <v>2068.408068290639</v>
+        <v>2068.408068290638</v>
       </c>
       <c r="W35" t="n">
         <v>1887.487463454099</v>
       </c>
       <c r="X35" t="n">
-        <v>1687.071648281452</v>
+        <v>1687.071648281451</v>
       </c>
       <c r="Y35" t="n">
-        <v>1475.14411816315</v>
+        <v>1475.144118163149</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>725.7728415427805</v>
+        <v>764.9902224725374</v>
       </c>
       <c r="C36" t="n">
-        <v>564.0691687837352</v>
+        <v>603.2865497134921</v>
       </c>
       <c r="D36" t="n">
-        <v>425.2305317739473</v>
+        <v>464.4479127037042</v>
       </c>
       <c r="E36" t="n">
-        <v>278.2025218308185</v>
+        <v>317.4199027605754</v>
       </c>
       <c r="F36" t="n">
-        <v>143.5087237806929</v>
+        <v>182.7261047104498</v>
       </c>
       <c r="G36" t="n">
-        <v>46.74057894471591</v>
+        <v>182.7261047104498</v>
       </c>
       <c r="H36" t="n">
-        <v>46.74057894471591</v>
+        <v>85.98747637000463</v>
       </c>
       <c r="I36" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471587</v>
       </c>
       <c r="J36" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471587</v>
       </c>
       <c r="K36" t="n">
-        <v>285.557933666504</v>
+        <v>328.6571426243016</v>
       </c>
       <c r="L36" t="n">
-        <v>721.8730205582632</v>
+        <v>764.9722295160607</v>
       </c>
       <c r="M36" t="n">
-        <v>1289.16866220624</v>
+        <v>1332.267871164038</v>
       </c>
       <c r="N36" t="n">
-        <v>1867.5833266471</v>
+        <v>1332.267871164038</v>
       </c>
       <c r="O36" t="n">
-        <v>2337.028947235795</v>
+        <v>1801.713491752734</v>
       </c>
       <c r="P36" t="n">
-        <v>2337.028947235795</v>
+        <v>2165.805871145124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2337.028947235795</v>
+        <v>2337.028947235794</v>
       </c>
       <c r="R36" t="n">
-        <v>2297.811566306037</v>
+        <v>2337.028947235794</v>
       </c>
       <c r="S36" t="n">
-        <v>2151.165001795139</v>
+        <v>2190.382382724896</v>
       </c>
       <c r="T36" t="n">
-        <v>1963.815089402866</v>
+        <v>2003.032470332623</v>
       </c>
       <c r="U36" t="n">
-        <v>1745.342090115024</v>
+        <v>1784.559471044781</v>
       </c>
       <c r="V36" t="n">
-        <v>1516.946467563358</v>
+        <v>1556.163848493115</v>
       </c>
       <c r="W36" t="n">
-        <v>1275.630598796668</v>
+        <v>1314.847979726425</v>
       </c>
       <c r="X36" t="n">
-        <v>1077.713610674463</v>
+        <v>1116.93099160422</v>
       </c>
       <c r="Y36" t="n">
-        <v>885.1922843240415</v>
+        <v>924.4096652537984</v>
       </c>
     </row>
     <row r="37">
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471587</v>
       </c>
       <c r="C37" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471587</v>
       </c>
       <c r="D37" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471587</v>
       </c>
       <c r="E37" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471587</v>
       </c>
       <c r="F37" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471587</v>
       </c>
       <c r="G37" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471587</v>
       </c>
       <c r="H37" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471587</v>
       </c>
       <c r="I37" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471587</v>
       </c>
       <c r="J37" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471587</v>
       </c>
       <c r="K37" t="n">
-        <v>111.9679293424035</v>
+        <v>111.9679293424034</v>
       </c>
       <c r="L37" t="n">
-        <v>253.0417694647197</v>
+        <v>253.0417694647196</v>
       </c>
       <c r="M37" t="n">
         <v>413.701800915204</v>
@@ -7123,22 +7123,22 @@
         <v>582.4478064321303</v>
       </c>
       <c r="T37" t="n">
-        <v>427.9644161409187</v>
+        <v>532.0697719218625</v>
       </c>
       <c r="U37" t="n">
-        <v>322.4036499363232</v>
+        <v>426.5090057172671</v>
       </c>
       <c r="V37" t="n">
-        <v>243.2826708006054</v>
+        <v>347.3880265815494</v>
       </c>
       <c r="W37" t="n">
-        <v>138.7405946238641</v>
+        <v>138.7405946238639</v>
       </c>
       <c r="X37" t="n">
-        <v>89.10245582509944</v>
+        <v>89.1024558250993</v>
       </c>
       <c r="Y37" t="n">
-        <v>48.68162232323613</v>
+        <v>48.68162232323604</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1262.714903950991</v>
+        <v>1262.71490395099</v>
       </c>
       <c r="C38" t="n">
-        <v>1062.395470589658</v>
+        <v>1062.395470589657</v>
       </c>
       <c r="D38" t="n">
-        <v>871.1858311227411</v>
+        <v>871.1858311227405</v>
       </c>
       <c r="E38" t="n">
-        <v>658.0144365347076</v>
+        <v>658.014436534707</v>
       </c>
       <c r="F38" t="n">
-        <v>425.4775711507375</v>
+        <v>425.4775711507369</v>
       </c>
       <c r="G38" t="n">
         <v>191.6070241668297</v>
@@ -7175,22 +7175,22 @@
         <v>46.74057894471591</v>
       </c>
       <c r="K38" t="n">
-        <v>364.0674083013969</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="L38" t="n">
-        <v>627.9818341408395</v>
+        <v>490.3825776185098</v>
       </c>
       <c r="M38" t="n">
-        <v>1127.768696688006</v>
+        <v>990.169440165676</v>
       </c>
       <c r="N38" t="n">
-        <v>1614.371804788025</v>
+        <v>1476.772548265695</v>
       </c>
       <c r="O38" t="n">
-        <v>2021.61433200555</v>
+        <v>1884.015075483221</v>
       </c>
       <c r="P38" t="n">
-        <v>2337.028947235795</v>
+        <v>2199.429690713466</v>
       </c>
       <c r="Q38" t="n">
         <v>2337.028947235795</v>
@@ -7202,13 +7202,13 @@
         <v>2337.028947235795</v>
       </c>
       <c r="T38" t="n">
-        <v>2296.994498928502</v>
+        <v>2296.994498928501</v>
       </c>
       <c r="U38" t="n">
         <v>2223.773017088839</v>
       </c>
       <c r="V38" t="n">
-        <v>2068.40806829064</v>
+        <v>2068.408068290639</v>
       </c>
       <c r="W38" t="n">
         <v>1887.4874634541</v>
@@ -7217,7 +7217,7 @@
         <v>1687.071648281453</v>
       </c>
       <c r="Y38" t="n">
-        <v>1475.144118163151</v>
+        <v>1475.14411816315</v>
       </c>
     </row>
     <row r="39">
@@ -7227,43 +7227,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>854.1405696934777</v>
+        <v>872.4194060536786</v>
       </c>
       <c r="C39" t="n">
-        <v>692.4368969344324</v>
+        <v>710.7157332946333</v>
       </c>
       <c r="D39" t="n">
-        <v>553.5982599246445</v>
+        <v>571.8770962848454</v>
       </c>
       <c r="E39" t="n">
-        <v>406.5702499815156</v>
+        <v>424.8490863417166</v>
       </c>
       <c r="F39" t="n">
-        <v>271.87645193139</v>
+        <v>290.155288291591</v>
       </c>
       <c r="G39" t="n">
-        <v>143.4792072851611</v>
+        <v>161.7580436453621</v>
       </c>
       <c r="H39" t="n">
-        <v>46.74057894471591</v>
+        <v>103.7178013409738</v>
       </c>
       <c r="I39" t="n">
         <v>46.74057894471591</v>
       </c>
       <c r="J39" t="n">
-        <v>46.74057894471591</v>
+        <v>137.668292186759</v>
       </c>
       <c r="K39" t="n">
-        <v>46.74057894471591</v>
+        <v>419.5848558663447</v>
       </c>
       <c r="L39" t="n">
-        <v>158.5660196205224</v>
+        <v>855.8999427581039</v>
       </c>
       <c r="M39" t="n">
-        <v>725.8616612684995</v>
+        <v>1423.195584406081</v>
       </c>
       <c r="N39" t="n">
-        <v>1304.276325709359</v>
+        <v>1773.721946298055</v>
       </c>
       <c r="O39" t="n">
         <v>1773.721946298055</v>
@@ -7275,28 +7275,28 @@
         <v>2337.028947235795</v>
       </c>
       <c r="R39" t="n">
-        <v>2337.028947235795</v>
+        <v>2297.811566306037</v>
       </c>
       <c r="S39" t="n">
-        <v>2190.382382724898</v>
+        <v>2297.811566306037</v>
       </c>
       <c r="T39" t="n">
-        <v>2003.032470332625</v>
+        <v>2110.461653913764</v>
       </c>
       <c r="U39" t="n">
-        <v>1873.709818265721</v>
+        <v>1891.988654625922</v>
       </c>
       <c r="V39" t="n">
-        <v>1645.314195714055</v>
+        <v>1663.593032074256</v>
       </c>
       <c r="W39" t="n">
-        <v>1403.998326947365</v>
+        <v>1422.277163307566</v>
       </c>
       <c r="X39" t="n">
-        <v>1206.08133882516</v>
+        <v>1224.360175185361</v>
       </c>
       <c r="Y39" t="n">
-        <v>1013.560012474739</v>
+        <v>1031.838848834939</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>339.4955469115326</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="C40" t="n">
-        <v>339.4955469115326</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="D40" t="n">
-        <v>339.4955469115326</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="E40" t="n">
-        <v>339.4955469115326</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="F40" t="n">
-        <v>339.4955469115326</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="G40" t="n">
-        <v>339.4955469115326</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="H40" t="n">
-        <v>182.5920257633458</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="I40" t="n">
         <v>46.74057894471591</v>
@@ -7351,31 +7351,31 @@
         <v>806.6004188827103</v>
       </c>
       <c r="Q40" t="n">
-        <v>806.6004188827103</v>
+        <v>791.3177828862566</v>
       </c>
       <c r="R40" t="n">
-        <v>806.6004188827103</v>
+        <v>791.3177828862566</v>
       </c>
       <c r="S40" t="n">
-        <v>779.3447677344435</v>
+        <v>764.0621317379898</v>
       </c>
       <c r="T40" t="n">
-        <v>728.9667332241756</v>
+        <v>713.684097227722</v>
       </c>
       <c r="U40" t="n">
-        <v>623.4059670195801</v>
+        <v>504.0179752421829</v>
       </c>
       <c r="V40" t="n">
-        <v>544.2849878838623</v>
+        <v>424.8969961064651</v>
       </c>
       <c r="W40" t="n">
-        <v>439.742911707121</v>
+        <v>320.3549199297237</v>
       </c>
       <c r="X40" t="n">
-        <v>390.1047729083563</v>
+        <v>270.7167811309591</v>
       </c>
       <c r="Y40" t="n">
-        <v>349.683939406493</v>
+        <v>230.2959476290957</v>
       </c>
     </row>
     <row r="41">
@@ -7391,61 +7391,61 @@
         <v>1064.566702132424</v>
       </c>
       <c r="D41" t="n">
-        <v>872.9446969849046</v>
+        <v>872.9446969849043</v>
       </c>
       <c r="E41" t="n">
-        <v>659.3609367162682</v>
+        <v>659.3609367162678</v>
       </c>
       <c r="F41" t="n">
         <v>426.4117056516952</v>
       </c>
       <c r="G41" t="n">
-        <v>192.1287929871844</v>
+        <v>192.1287929871845</v>
       </c>
       <c r="H41" t="n">
-        <v>46.84998208446769</v>
+        <v>46.84998208446772</v>
       </c>
       <c r="I41" t="n">
-        <v>46.84998208446769</v>
+        <v>46.84998208446772</v>
       </c>
       <c r="J41" t="n">
-        <v>170.3493986293229</v>
+        <v>46.84998208446772</v>
       </c>
       <c r="K41" t="n">
-        <v>487.6762279860038</v>
+        <v>364.1768114411487</v>
       </c>
       <c r="L41" t="n">
-        <v>931.3182266597977</v>
+        <v>807.8188101149426</v>
       </c>
       <c r="M41" t="n">
-        <v>1431.105089206964</v>
+        <v>1307.605672662109</v>
       </c>
       <c r="N41" t="n">
-        <v>1917.708197306983</v>
+        <v>1794.208780762128</v>
       </c>
       <c r="O41" t="n">
-        <v>2324.950724524509</v>
+        <v>2201.451307979653</v>
       </c>
       <c r="P41" t="n">
-        <v>2342.499104223385</v>
+        <v>2342.499104223386</v>
       </c>
       <c r="Q41" t="n">
-        <v>2342.499104223385</v>
+        <v>2342.499104223386</v>
       </c>
       <c r="R41" t="n">
-        <v>2342.499104223385</v>
+        <v>2342.499104223386</v>
       </c>
       <c r="S41" t="n">
-        <v>2342.499104223385</v>
+        <v>2342.499104223386</v>
       </c>
       <c r="T41" t="n">
-        <v>2302.052290235488</v>
+        <v>2302.052290235489</v>
       </c>
       <c r="U41" t="n">
-        <v>2228.418442715222</v>
+        <v>2228.418442715223</v>
       </c>
       <c r="V41" t="n">
-        <v>2072.64112823642</v>
+        <v>2072.641128236421</v>
       </c>
       <c r="W41" t="n">
         <v>1891.308157719278</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>731.2429985303697</v>
+        <v>911.2271952294874</v>
       </c>
       <c r="C42" t="n">
-        <v>569.5393257713245</v>
+        <v>749.5235224704421</v>
       </c>
       <c r="D42" t="n">
-        <v>430.7006887615365</v>
+        <v>610.6848854606542</v>
       </c>
       <c r="E42" t="n">
-        <v>283.6726788184077</v>
+        <v>463.6568755175254</v>
       </c>
       <c r="F42" t="n">
-        <v>148.9788807682821</v>
+        <v>328.9630774673997</v>
       </c>
       <c r="G42" t="n">
-        <v>143.5886104249128</v>
+        <v>200.5658328211708</v>
       </c>
       <c r="H42" t="n">
-        <v>46.84998208446769</v>
+        <v>103.8272044807256</v>
       </c>
       <c r="I42" t="n">
-        <v>46.84998208446769</v>
+        <v>46.84998208446772</v>
       </c>
       <c r="J42" t="n">
-        <v>46.84998208446769</v>
+        <v>137.7776953265108</v>
       </c>
       <c r="K42" t="n">
-        <v>46.84998208446769</v>
+        <v>419.6942590060965</v>
       </c>
       <c r="L42" t="n">
-        <v>483.1650689762268</v>
+        <v>419.6942590060965</v>
       </c>
       <c r="M42" t="n">
-        <v>1050.460710624204</v>
+        <v>729.9779544016615</v>
       </c>
       <c r="N42" t="n">
-        <v>1630.229238919491</v>
+        <v>1309.746482696949</v>
       </c>
       <c r="O42" t="n">
-        <v>2099.674859508187</v>
+        <v>1779.192103285645</v>
       </c>
       <c r="P42" t="n">
-        <v>2342.499104223385</v>
+        <v>2143.284482678036</v>
       </c>
       <c r="Q42" t="n">
-        <v>2342.499104223385</v>
+        <v>2342.499104223386</v>
       </c>
       <c r="R42" t="n">
-        <v>2303.281723293626</v>
+        <v>2342.499104223386</v>
       </c>
       <c r="S42" t="n">
-        <v>2156.635158782728</v>
+        <v>2195.852539712488</v>
       </c>
       <c r="T42" t="n">
-        <v>1969.285246390455</v>
+        <v>2008.502627320215</v>
       </c>
       <c r="U42" t="n">
-        <v>1750.812247102613</v>
+        <v>1930.796443801731</v>
       </c>
       <c r="V42" t="n">
-        <v>1522.416624550947</v>
+        <v>1702.400821250065</v>
       </c>
       <c r="W42" t="n">
-        <v>1281.100755784257</v>
+        <v>1461.084952483375</v>
       </c>
       <c r="X42" t="n">
-        <v>1083.183767662052</v>
+        <v>1263.167964361169</v>
       </c>
       <c r="Y42" t="n">
-        <v>890.6624413116307</v>
+        <v>1070.646638010748</v>
       </c>
     </row>
     <row r="43">
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.84998208446769</v>
+        <v>203.7535032326545</v>
       </c>
       <c r="C43" t="n">
-        <v>46.84998208446769</v>
+        <v>203.7535032326545</v>
       </c>
       <c r="D43" t="n">
-        <v>46.84998208446769</v>
+        <v>203.7535032326545</v>
       </c>
       <c r="E43" t="n">
-        <v>46.84998208446769</v>
+        <v>203.7535032326545</v>
       </c>
       <c r="F43" t="n">
-        <v>46.84998208446769</v>
+        <v>203.7535032326545</v>
       </c>
       <c r="G43" t="n">
-        <v>46.84998208446769</v>
+        <v>203.7535032326545</v>
       </c>
       <c r="H43" t="n">
-        <v>46.84998208446769</v>
+        <v>46.84998208446772</v>
       </c>
       <c r="I43" t="n">
-        <v>46.84998208446769</v>
+        <v>46.84998208446772</v>
       </c>
       <c r="J43" t="n">
-        <v>46.84998208446769</v>
+        <v>46.84998208446772</v>
       </c>
       <c r="K43" t="n">
         <v>112.0773324821553</v>
       </c>
       <c r="L43" t="n">
-        <v>253.1511726044714</v>
+        <v>253.1511726044715</v>
       </c>
       <c r="M43" t="n">
         <v>413.8112040549559</v>
@@ -7594,25 +7594,25 @@
         <v>806.709822022462</v>
       </c>
       <c r="S43" t="n">
-        <v>779.0418051935925</v>
+        <v>638.2419347033463</v>
       </c>
       <c r="T43" t="n">
-        <v>728.2514050027219</v>
+        <v>587.4515345124754</v>
       </c>
       <c r="U43" t="n">
-        <v>441.0763134922668</v>
+        <v>481.4784026272769</v>
       </c>
       <c r="V43" t="n">
-        <v>361.5429686759462</v>
+        <v>401.945057810956</v>
       </c>
       <c r="W43" t="n">
-        <v>140.0870948054245</v>
+        <v>296.9906159536117</v>
       </c>
       <c r="X43" t="n">
-        <v>90.03659032605698</v>
+        <v>246.9401114742441</v>
       </c>
       <c r="Y43" t="n">
-        <v>49.20339114359079</v>
+        <v>206.1069122917777</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1265.298501174359</v>
+        <v>1265.298501174361</v>
       </c>
       <c r="C44" t="n">
-        <v>1064.566702132423</v>
+        <v>1064.566702132425</v>
       </c>
       <c r="D44" t="n">
-        <v>872.9446969849041</v>
+        <v>872.944696984905</v>
       </c>
       <c r="E44" t="n">
-        <v>659.3609367162675</v>
+        <v>659.3609367162683</v>
       </c>
       <c r="F44" t="n">
-        <v>426.4117056516945</v>
+        <v>426.4117056516952</v>
       </c>
       <c r="G44" t="n">
-        <v>192.1287929871843</v>
+        <v>192.1287929871845</v>
       </c>
       <c r="H44" t="n">
-        <v>46.84998208446767</v>
+        <v>46.84998208446771</v>
       </c>
       <c r="I44" t="n">
-        <v>46.84998208446767</v>
+        <v>46.84998208446771</v>
       </c>
       <c r="J44" t="n">
-        <v>46.84998208446767</v>
+        <v>156.1659952226566</v>
       </c>
       <c r="K44" t="n">
-        <v>364.1768114411486</v>
+        <v>473.4928245793375</v>
       </c>
       <c r="L44" t="n">
-        <v>807.8188101149425</v>
+        <v>473.4928245793375</v>
       </c>
       <c r="M44" t="n">
-        <v>1288.694302356746</v>
+        <v>973.2796871265036</v>
       </c>
       <c r="N44" t="n">
-        <v>1775.297410456765</v>
+        <v>1459.882795226523</v>
       </c>
       <c r="O44" t="n">
-        <v>2182.539937674291</v>
+        <v>1867.125322444048</v>
       </c>
       <c r="P44" t="n">
-        <v>2182.539937674291</v>
+        <v>2182.539937674293</v>
       </c>
       <c r="Q44" t="n">
-        <v>2342.499104223383</v>
+        <v>2342.499104223386</v>
       </c>
       <c r="R44" t="n">
-        <v>2342.499104223383</v>
+        <v>2342.499104223386</v>
       </c>
       <c r="S44" t="n">
-        <v>2342.499104223383</v>
+        <v>2342.499104223386</v>
       </c>
       <c r="T44" t="n">
-        <v>2302.052290235486</v>
+        <v>2302.052290235489</v>
       </c>
       <c r="U44" t="n">
-        <v>2228.418442715221</v>
+        <v>2228.418442715223</v>
       </c>
       <c r="V44" t="n">
-        <v>2072.641128236419</v>
+        <v>2072.641128236421</v>
       </c>
       <c r="W44" t="n">
-        <v>1891.308157719277</v>
+        <v>1891.308157719279</v>
       </c>
       <c r="X44" t="n">
-        <v>1690.479976866027</v>
+        <v>1690.479976866029</v>
       </c>
       <c r="Y44" t="n">
-        <v>1478.140081067122</v>
+        <v>1478.140081067123</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>911.2271952294872</v>
+        <v>731.2429985303706</v>
       </c>
       <c r="C45" t="n">
-        <v>749.5235224704419</v>
+        <v>569.5393257713254</v>
       </c>
       <c r="D45" t="n">
-        <v>610.684885460654</v>
+        <v>430.7006887615374</v>
       </c>
       <c r="E45" t="n">
-        <v>463.6568755175252</v>
+        <v>283.6726788184087</v>
       </c>
       <c r="F45" t="n">
-        <v>328.9630774673996</v>
+        <v>148.978880768283</v>
       </c>
       <c r="G45" t="n">
-        <v>200.5658328211707</v>
+        <v>148.978880768283</v>
       </c>
       <c r="H45" t="n">
-        <v>103.8272044807256</v>
+        <v>52.24025242783785</v>
       </c>
       <c r="I45" t="n">
-        <v>46.84998208446767</v>
+        <v>46.84998208446771</v>
       </c>
       <c r="J45" t="n">
-        <v>46.84998208446767</v>
+        <v>46.84998208446771</v>
       </c>
       <c r="K45" t="n">
-        <v>46.84998208446767</v>
+        <v>328.7665457640534</v>
       </c>
       <c r="L45" t="n">
-        <v>483.1650689762268</v>
+        <v>765.0816326558125</v>
       </c>
       <c r="M45" t="n">
-        <v>1050.460710624204</v>
+        <v>1332.37727430379</v>
       </c>
       <c r="N45" t="n">
-        <v>1630.229238919491</v>
+        <v>1873.05348363469</v>
       </c>
       <c r="O45" t="n">
-        <v>2099.674859508187</v>
+        <v>2342.499104223386</v>
       </c>
       <c r="P45" t="n">
-        <v>2342.499104223383</v>
+        <v>2342.499104223386</v>
       </c>
       <c r="Q45" t="n">
-        <v>2342.499104223383</v>
+        <v>2342.499104223386</v>
       </c>
       <c r="R45" t="n">
-        <v>2303.281723293625</v>
+        <v>2303.281723293627</v>
       </c>
       <c r="S45" t="n">
-        <v>2303.281723293625</v>
+        <v>2156.635158782729</v>
       </c>
       <c r="T45" t="n">
-        <v>2149.269443089573</v>
+        <v>1969.285246390456</v>
       </c>
       <c r="U45" t="n">
-        <v>1930.79644380173</v>
+        <v>1750.812247102614</v>
       </c>
       <c r="V45" t="n">
-        <v>1702.400821250064</v>
+        <v>1522.416624550948</v>
       </c>
       <c r="W45" t="n">
-        <v>1461.084952483375</v>
+        <v>1281.100755784258</v>
       </c>
       <c r="X45" t="n">
-        <v>1263.167964361169</v>
+        <v>1083.183767662053</v>
       </c>
       <c r="Y45" t="n">
-        <v>1070.646638010748</v>
+        <v>890.6624413116316</v>
       </c>
     </row>
     <row r="46">
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.84998208446767</v>
+        <v>148.0687781011903</v>
       </c>
       <c r="C46" t="n">
-        <v>46.84998208446767</v>
+        <v>148.0687781011903</v>
       </c>
       <c r="D46" t="n">
-        <v>46.84998208446767</v>
+        <v>148.0687781011903</v>
       </c>
       <c r="E46" t="n">
-        <v>46.84998208446767</v>
+        <v>46.84998208446771</v>
       </c>
       <c r="F46" t="n">
-        <v>46.84998208446767</v>
+        <v>46.84998208446771</v>
       </c>
       <c r="G46" t="n">
-        <v>46.84998208446767</v>
+        <v>46.84998208446771</v>
       </c>
       <c r="H46" t="n">
-        <v>46.84998208446767</v>
+        <v>46.84998208446771</v>
       </c>
       <c r="I46" t="n">
-        <v>46.84998208446767</v>
+        <v>46.84998208446771</v>
       </c>
       <c r="J46" t="n">
-        <v>46.84998208446767</v>
+        <v>46.84998208446771</v>
       </c>
       <c r="K46" t="n">
-        <v>112.0773324821552</v>
+        <v>112.0773324821553</v>
       </c>
       <c r="L46" t="n">
-        <v>253.1511726044714</v>
+        <v>253.1511726044715</v>
       </c>
       <c r="M46" t="n">
-        <v>413.8112040549558</v>
+        <v>413.8112040549559</v>
       </c>
       <c r="N46" t="n">
         <v>573.8855565196338</v>
@@ -7825,31 +7825,31 @@
         <v>806.709822022462</v>
       </c>
       <c r="Q46" t="n">
-        <v>806.709822022462</v>
+        <v>791.4271860260084</v>
       </c>
       <c r="R46" t="n">
-        <v>806.709822022462</v>
+        <v>791.4271860260084</v>
       </c>
       <c r="S46" t="n">
-        <v>779.0418051935925</v>
+        <v>763.7591691971386</v>
       </c>
       <c r="T46" t="n">
-        <v>728.2514050027219</v>
+        <v>712.9687690062677</v>
       </c>
       <c r="U46" t="n">
-        <v>622.2782731175234</v>
+        <v>606.9956371210692</v>
       </c>
       <c r="V46" t="n">
-        <v>542.7449283012028</v>
+        <v>346.2603326794918</v>
       </c>
       <c r="W46" t="n">
-        <v>437.7904864438586</v>
+        <v>241.3058908221475</v>
       </c>
       <c r="X46" t="n">
-        <v>271.2385499513137</v>
+        <v>191.2553863427798</v>
       </c>
       <c r="Y46" t="n">
-        <v>49.20339114359077</v>
+        <v>150.4221871603135</v>
       </c>
     </row>
   </sheetData>
@@ -8687,25 +8687,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8255997236959</v>
+        <v>95.0787143248523</v>
       </c>
       <c r="K11" t="n">
         <v>100.8568854771799</v>
       </c>
       <c r="L11" t="n">
-        <v>388.9259701028594</v>
+        <v>94.83634793195542</v>
       </c>
       <c r="M11" t="n">
-        <v>369.5074131067838</v>
+        <v>200.1646763347237</v>
       </c>
       <c r="N11" t="n">
-        <v>77.03271072545913</v>
+        <v>371.1223328963633</v>
       </c>
       <c r="O11" t="n">
-        <v>83.68414754305806</v>
+        <v>377.7737697139623</v>
       </c>
       <c r="P11" t="n">
-        <v>393.8273213491395</v>
+        <v>393.8273213491397</v>
       </c>
       <c r="Q11" t="n">
         <v>276.0094878578761</v>
@@ -8766,28 +8766,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>72.07217095056878</v>
       </c>
       <c r="K12" t="n">
         <v>59.04060237939697</v>
       </c>
       <c r="L12" t="n">
-        <v>41.37013890282101</v>
+        <v>335.4597610737252</v>
       </c>
       <c r="M12" t="n">
-        <v>326.4803043913816</v>
+        <v>32.39068222047764</v>
       </c>
       <c r="N12" t="n">
-        <v>315.5123126066133</v>
+        <v>315.5123126066135</v>
       </c>
       <c r="O12" t="n">
-        <v>321.0572894390058</v>
+        <v>331.9231416865154</v>
       </c>
       <c r="P12" t="n">
-        <v>46.23151903758416</v>
+        <v>328.4387322318862</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>71.87358360675529</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>95.0787143248523</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>100.8568854771799</v>
+        <v>394.9465076480836</v>
       </c>
       <c r="L14" t="n">
-        <v>94.83634793195542</v>
+        <v>384.8113821921636</v>
       </c>
       <c r="M14" t="n">
-        <v>373.6220010174791</v>
+        <v>373.6220010174789</v>
       </c>
       <c r="N14" t="n">
-        <v>371.1223328963631</v>
+        <v>77.03271072545913</v>
       </c>
       <c r="O14" t="n">
-        <v>365.8913607373599</v>
+        <v>83.68414754305806</v>
       </c>
       <c r="P14" t="n">
-        <v>393.8273213491395</v>
+        <v>99.7376991782355</v>
       </c>
       <c r="Q14" t="n">
-        <v>114.4345721517224</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9003,28 +9003,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>72.07217095056878</v>
       </c>
       <c r="K15" t="n">
-        <v>343.8048081163522</v>
+        <v>59.04060237939697</v>
       </c>
       <c r="L15" t="n">
         <v>41.37013890282101</v>
       </c>
       <c r="M15" t="n">
-        <v>32.39068222047764</v>
+        <v>314.5978954147794</v>
       </c>
       <c r="N15" t="n">
-        <v>315.5123126066133</v>
+        <v>315.5123126066131</v>
       </c>
       <c r="O15" t="n">
-        <v>37.83351951561121</v>
+        <v>331.9231416865149</v>
       </c>
       <c r="P15" t="n">
-        <v>338.7807053949275</v>
+        <v>340.3211412084879</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>71.87358360675529</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9161,22 +9161,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>219.8255997236959</v>
+        <v>95.0787143248523</v>
       </c>
       <c r="K17" t="n">
-        <v>394.9465076480838</v>
+        <v>100.8568854771799</v>
       </c>
       <c r="L17" t="n">
-        <v>252.2966757274138</v>
+        <v>388.9259701028591</v>
       </c>
       <c r="M17" t="n">
-        <v>79.53237884657511</v>
+        <v>373.6220010174789</v>
       </c>
       <c r="N17" t="n">
-        <v>371.1223328963631</v>
+        <v>359.2399239197608</v>
       </c>
       <c r="O17" t="n">
-        <v>377.7737697139621</v>
+        <v>377.7737697139618</v>
       </c>
       <c r="P17" t="n">
         <v>99.7376991782355</v>
@@ -9240,28 +9240,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425315</v>
+        <v>72.07217095056878</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>335.459761073725</v>
+        <v>335.4597610737247</v>
       </c>
       <c r="M18" t="n">
-        <v>324.939868577821</v>
+        <v>32.39068222047764</v>
       </c>
       <c r="N18" t="n">
         <v>21.42269043570934</v>
       </c>
       <c r="O18" t="n">
-        <v>37.83351951561121</v>
+        <v>331.923141686515</v>
       </c>
       <c r="P18" t="n">
-        <v>46.23151903758416</v>
+        <v>337.7641486658343</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>71.87358360675529</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9401,25 +9401,25 @@
         <v>95.0787143248523</v>
       </c>
       <c r="K20" t="n">
-        <v>394.9465076480838</v>
+        <v>221.489182965328</v>
       </c>
       <c r="L20" t="n">
-        <v>377.0435611262574</v>
+        <v>94.83634793195542</v>
       </c>
       <c r="M20" t="n">
-        <v>373.6220010174791</v>
+        <v>373.6220010174789</v>
       </c>
       <c r="N20" t="n">
         <v>77.03271072545913</v>
       </c>
       <c r="O20" t="n">
-        <v>83.68414754305806</v>
+        <v>377.7737697139618</v>
       </c>
       <c r="P20" t="n">
-        <v>393.8273213491395</v>
+        <v>393.8273213491393</v>
       </c>
       <c r="Q20" t="n">
-        <v>114.4345721517224</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9477,28 +9477,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>72.07217095056878</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>41.37013890282101</v>
+        <v>335.4597610737247</v>
       </c>
       <c r="M21" t="n">
-        <v>32.39068222047764</v>
+        <v>326.4803043913814</v>
       </c>
       <c r="N21" t="n">
-        <v>313.9718767930526</v>
+        <v>312.9553200639594</v>
       </c>
       <c r="O21" t="n">
-        <v>331.9231416865151</v>
+        <v>37.83351951561121</v>
       </c>
       <c r="P21" t="n">
         <v>46.23151903758416</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>71.87358360675529</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9635,22 +9635,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>219.8255997236959</v>
+        <v>95.0787143248523</v>
       </c>
       <c r="K23" t="n">
-        <v>394.9465076480838</v>
+        <v>100.8568854771799</v>
       </c>
       <c r="L23" t="n">
-        <v>388.9259701028594</v>
+        <v>388.9259701028591</v>
       </c>
       <c r="M23" t="n">
-        <v>236.9927066420334</v>
+        <v>373.6220010174789</v>
       </c>
       <c r="N23" t="n">
-        <v>371.1223328963631</v>
+        <v>371.1223328963629</v>
       </c>
       <c r="O23" t="n">
-        <v>83.68414754305806</v>
+        <v>365.8913607373596</v>
       </c>
       <c r="P23" t="n">
         <v>99.7376991782355</v>
@@ -9720,10 +9720,10 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>333.9193252601642</v>
+        <v>335.4597610737247</v>
       </c>
       <c r="M24" t="n">
-        <v>32.39068222047764</v>
+        <v>324.9398685778203</v>
       </c>
       <c r="N24" t="n">
         <v>21.42269043570934</v>
@@ -9732,7 +9732,7 @@
         <v>37.83351951561121</v>
       </c>
       <c r="P24" t="n">
-        <v>340.3211412084881</v>
+        <v>46.23151903758416</v>
       </c>
       <c r="Q24" t="n">
         <v>273.1004740566038</v>
@@ -9951,10 +9951,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>72.07217095056878</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2521357818321</v>
+        <v>59.04060237939697</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9969,7 +9969,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>414.0015992319183</v>
+        <v>365.3669576423905</v>
       </c>
       <c r="Q27" t="n">
         <v>71.87358360675529</v>
@@ -10188,16 +10188,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>72.07217095056875</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2521357818316</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>605.4165828749999</v>
+        <v>272.0177355485171</v>
       </c>
       <c r="N30" t="n">
         <v>623.1450866466196</v>
@@ -10209,7 +10209,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>71.87358360675523</v>
+        <v>71.87358360675529</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10434,13 +10434,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>605.4165828749999</v>
+        <v>544.978340642806</v>
       </c>
       <c r="N33" t="n">
-        <v>88.51934887028798</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
-        <v>512.0210150597484</v>
+        <v>37.83351951561121</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>219.8255997236959</v>
+        <v>95.0787143248523</v>
       </c>
       <c r="K35" t="n">
         <v>421.3890363425141</v>
@@ -10601,7 +10601,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P35" t="n">
-        <v>112.048432361103</v>
+        <v>236.7953177599447</v>
       </c>
       <c r="Q35" t="n">
         <v>114.4345721517224</v>
@@ -10665,7 +10665,7 @@
         <v>72.07217095056878</v>
       </c>
       <c r="K36" t="n">
-        <v>300.2702536135264</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10674,16 +10674,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>605.6799272446583</v>
+        <v>21.42269043570934</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>46.23151903758416</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>71.87358360675529</v>
+        <v>244.8261857185423</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10823,10 +10823,10 @@
         <v>95.0787143248523</v>
       </c>
       <c r="K38" t="n">
-        <v>421.3890363425141</v>
+        <v>100.8568854771799</v>
       </c>
       <c r="L38" t="n">
-        <v>361.4165760526045</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
         <v>584.3675935406823</v>
@@ -10841,7 +10841,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>114.4345721517224</v>
+        <v>253.4237201540756</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10899,22 +10899,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>72.07217095056878</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>59.04060237939697</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
-        <v>154.3251294844437</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>605.6799272446583</v>
+        <v>375.4897226498244</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>37.83351951561121</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8255997236959</v>
+        <v>95.0787143248523</v>
       </c>
       <c r="K41" t="n">
         <v>421.3890363425141</v>
@@ -11075,7 +11075,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P41" t="n">
-        <v>117.4633352377062</v>
+        <v>242.2102206365512</v>
       </c>
       <c r="Q41" t="n">
         <v>114.4345721517224</v>
@@ -11136,28 +11136,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>72.07217095056878</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>59.04060237939697</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>482.0924488944969</v>
+        <v>41.37013890282101</v>
       </c>
       <c r="M42" t="n">
-        <v>605.4165828749999</v>
+        <v>345.8085563574119</v>
       </c>
       <c r="N42" t="n">
-        <v>607.0474664915555</v>
+        <v>607.047466491556</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>291.50853390142</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>71.87358360675529</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11294,16 +11294,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>95.0787143248523</v>
+        <v>205.4989296159522</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L44" t="n">
-        <v>542.9595789155856</v>
+        <v>94.83634793195542</v>
       </c>
       <c r="M44" t="n">
-        <v>565.2651992928418</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
         <v>568.5510017355793</v>
@@ -11312,7 +11312,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
-        <v>99.7376991782355</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
         <v>276.0094878578761</v>
@@ -11376,7 +11376,7 @@
         <v>72.07217095056878</v>
       </c>
       <c r="K45" t="n">
-        <v>59.04060237939697</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
@@ -11385,13 +11385,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>607.0474664915552</v>
+        <v>567.5602756184367</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>291.5085339014191</v>
+        <v>46.23151903758416</v>
       </c>
       <c r="Q45" t="n">
         <v>71.87358360675529</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>218.7134039554108</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>206.7247209130925</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>197.7060249576205</v>
       </c>
       <c r="E11" t="n">
-        <v>219.4481625275261</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>238.6199786155032</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>80.89774890663895</v>
       </c>
       <c r="V11" t="n">
-        <v>145.0663384793451</v>
+        <v>137.5074923374855</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>187.5198806735468</v>
       </c>
       <c r="X11" t="n">
         <v>206.8201389062934</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>218.2167367024921</v>
       </c>
     </row>
     <row r="12">
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>206.7247209130925</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>197.7060249576205</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>219.448162527526</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>238.6199786155032</v>
       </c>
       <c r="G14" t="n">
-        <v>239.9403233994415</v>
+        <v>2.548064776219775</v>
       </c>
       <c r="H14" t="n">
-        <v>151.8262626552655</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>14.15853586296473</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>162.2197811955899</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>187.5198806735468</v>
       </c>
       <c r="X14" t="n">
         <v>206.8201389062934</v>
       </c>
       <c r="Y14" t="n">
-        <v>218.2167367024922</v>
+        <v>218.2167367024921</v>
       </c>
     </row>
     <row r="15">
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1133517.671093104</v>
+        <v>1133517.671093105</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1133517.671093105</v>
+        <v>1133517.671093104</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1281023.564654727</v>
+        <v>1281023.564654726</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1281023.564654727</v>
+        <v>1281023.564654726</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1281023.564654727</v>
+        <v>1281023.564654726</v>
       </c>
     </row>
     <row r="10">
@@ -26314,7 +26314,7 @@
         <v>191469.1578768261</v>
       </c>
       <c r="C2" t="n">
-        <v>191469.1578768262</v>
+        <v>191469.1578768261</v>
       </c>
       <c r="D2" t="n">
         <v>191469.1578768261</v>
@@ -26329,13 +26329,13 @@
         <v>191906.0151235453</v>
       </c>
       <c r="H2" t="n">
-        <v>191906.0151235453</v>
+        <v>191906.0151235454</v>
       </c>
       <c r="I2" t="n">
         <v>191906.0151235453</v>
       </c>
       <c r="J2" t="n">
-        <v>191906.0151235453</v>
+        <v>191906.0151235452</v>
       </c>
       <c r="K2" t="n">
         <v>191906.0151235452</v>
@@ -26347,10 +26347,10 @@
         <v>191906.0151235455</v>
       </c>
       <c r="N2" t="n">
-        <v>191906.0151235455</v>
+        <v>191906.0151235454</v>
       </c>
       <c r="O2" t="n">
-        <v>191906.0151235453</v>
+        <v>191906.0151235454</v>
       </c>
       <c r="P2" t="n">
         <v>191906.0151235454</v>
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>347410.9880429468</v>
+        <v>347410.988042947</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80469.26609315924</v>
+        <v>80469.26609315911</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>153193.9940866781</v>
+        <v>153193.9940866782</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>80469.26609315928</v>
+        <v>80469.26609315917</v>
       </c>
       <c r="M3" t="n">
-        <v>63042.68593004405</v>
+        <v>63042.68593004403</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>329.0996873050842</v>
+        <v>329.0996873051663</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,28 +26424,28 @@
         <v>424293.6514672661</v>
       </c>
       <c r="E4" t="n">
+        <v>312560.3075442406</v>
+      </c>
+      <c r="F4" t="n">
         <v>312560.3075442405</v>
       </c>
-      <c r="F4" t="n">
-        <v>312560.3075442404</v>
-      </c>
       <c r="G4" t="n">
-        <v>368687.9792090663</v>
+        <v>368687.9792090662</v>
       </c>
       <c r="H4" t="n">
-        <v>368687.9792090663</v>
+        <v>368687.9792090662</v>
       </c>
       <c r="I4" t="n">
         <v>368687.9792090663</v>
       </c>
       <c r="J4" t="n">
-        <v>358899.8032199901</v>
+        <v>358899.80321999</v>
       </c>
       <c r="K4" t="n">
         <v>358899.80321999</v>
       </c>
       <c r="L4" t="n">
-        <v>358899.80321999</v>
+        <v>358899.8032199901</v>
       </c>
       <c r="M4" t="n">
         <v>360570.8158019183</v>
@@ -26476,31 +26476,31 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>35612.93854501296</v>
+        <v>35612.93854501299</v>
       </c>
       <c r="F5" t="n">
         <v>35612.93854501296</v>
       </c>
       <c r="G5" t="n">
-        <v>44069.15195899522</v>
+        <v>44069.15195899519</v>
       </c>
       <c r="H5" t="n">
-        <v>44069.15195899522</v>
+        <v>44069.15195899519</v>
       </c>
       <c r="I5" t="n">
-        <v>44069.15195899522</v>
+        <v>44069.15195899521</v>
       </c>
       <c r="J5" t="n">
-        <v>65217.75175230239</v>
+        <v>65217.75175230238</v>
       </c>
       <c r="K5" t="n">
-        <v>65217.75175230239</v>
+        <v>65217.75175230237</v>
       </c>
       <c r="L5" t="n">
-        <v>65217.75175230238</v>
+        <v>65217.75175230237</v>
       </c>
       <c r="M5" t="n">
-        <v>53962.02217862751</v>
+        <v>53962.02217862749</v>
       </c>
       <c r="N5" t="n">
         <v>53962.02217862751</v>
@@ -26509,7 +26509,7 @@
         <v>54010.84806614029</v>
       </c>
       <c r="P5" t="n">
-        <v>54010.84806614026</v>
+        <v>54010.84806614029</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-266452.09359044</v>
+        <v>-266456.4621629072</v>
       </c>
       <c r="C6" t="n">
-        <v>-266452.09359044</v>
+        <v>-266456.4621629072</v>
       </c>
       <c r="D6" t="n">
-        <v>-266452.0935904401</v>
+        <v>-266456.4621629072</v>
       </c>
       <c r="E6" t="n">
-        <v>-528262.5346022586</v>
+        <v>-528508.3777581948</v>
       </c>
       <c r="F6" t="n">
-        <v>-180851.5465593117</v>
+        <v>-181097.3897152477</v>
       </c>
       <c r="G6" t="n">
-        <v>-301320.3821376754</v>
+        <v>-301320.3821376752</v>
       </c>
       <c r="H6" t="n">
-        <v>-220851.1160445162</v>
+        <v>-220851.116044516</v>
       </c>
       <c r="I6" t="n">
         <v>-220851.1160445162</v>
       </c>
       <c r="J6" t="n">
-        <v>-385405.5339354253</v>
+        <v>-385405.5339354255</v>
       </c>
       <c r="K6" t="n">
         <v>-232211.5398487472</v>
       </c>
       <c r="L6" t="n">
-        <v>-312680.8059419065</v>
+        <v>-312680.8059419064</v>
       </c>
       <c r="M6" t="n">
         <v>-285669.5087870443</v>
@@ -26561,7 +26561,7 @@
         <v>-222966.4928203278</v>
       </c>
       <c r="P6" t="n">
-        <v>-222637.3931330225</v>
+        <v>-222637.3931330224</v>
       </c>
     </row>
   </sheetData>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="F2" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="G2" t="n">
-        <v>271.9762827838772</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="H2" t="n">
-        <v>271.9762827838772</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="I2" t="n">
         <v>271.9762827838772</v>
@@ -26713,19 +26713,19 @@
         <v>100.9948246402459</v>
       </c>
       <c r="L2" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="M2" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="N2" t="n">
         <v>179.798182052801</v>
       </c>
       <c r="O2" t="n">
-        <v>179.3899400290042</v>
+        <v>179.389940029004</v>
       </c>
       <c r="P2" t="n">
-        <v>179.3899400290042</v>
+        <v>179.389940029004</v>
       </c>
     </row>
     <row r="3">
@@ -26762,7 +26762,7 @@
         <v>152.4646244791968</v>
       </c>
       <c r="K3" t="n">
-        <v>152.464624479197</v>
+        <v>152.4646244791968</v>
       </c>
       <c r="L3" t="n">
         <v>152.4646244791968</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709042</v>
       </c>
       <c r="F4" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="G4" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="H4" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="I4" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="J4" t="n">
-        <v>878.346858979853</v>
+        <v>878.3468589798529</v>
       </c>
       <c r="K4" t="n">
-        <v>878.3468589798531</v>
+        <v>878.3468589798528</v>
       </c>
       <c r="L4" t="n">
-        <v>878.3468589798529</v>
+        <v>878.3468589798526</v>
       </c>
       <c r="M4" t="n">
-        <v>584.2572368089488</v>
+        <v>584.2572368089484</v>
       </c>
       <c r="N4" t="n">
         <v>584.2572368089488</v>
       </c>
       <c r="O4" t="n">
-        <v>585.6247760558462</v>
+        <v>585.6247760558465</v>
       </c>
       <c r="P4" t="n">
-        <v>585.6247760558458</v>
+        <v>585.6247760558464</v>
       </c>
     </row>
   </sheetData>
@@ -26914,31 +26914,31 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>100.5865826164489</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8.526512829121202e-14</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.4082420237969586</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>100.586582616449</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.4082420237968165</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>100.5865826164491</v>
-      </c>
       <c r="M2" t="n">
-        <v>78.80335741255506</v>
+        <v>78.80335741255503</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709042</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.367539246897309</v>
+        <v>1.36753924689765</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>100.586582616449</v>
+        <v>100.5865826164489</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4082420237968165</v>
+        <v>0.4082420237969586</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709042</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="C11" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="D11" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="E11" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="F11" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="G11" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="H11" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="I11" t="n">
         <v>147.459308470692</v>
@@ -28138,25 +28138,25 @@
         <v>51.23037211170278</v>
       </c>
       <c r="S11" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="T11" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="U11" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="V11" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="W11" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="X11" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="Y11" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
     </row>
     <row r="12">
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
         <v>160.0866360314548</v>
@@ -28175,7 +28175,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>72.61356243783203</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
@@ -28184,7 +28184,7 @@
         <v>127.1132721997666</v>
       </c>
       <c r="H12" t="n">
-        <v>95.77124205704071</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>56.40745017229531</v>
@@ -28217,10 +28217,10 @@
         <v>38.82520712046112</v>
       </c>
       <c r="S12" t="n">
-        <v>145.180098865789</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>171.3897001674281</v>
+        <v>10.18192516351507</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -28232,10 +28232,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>171.3897001674282</v>
       </c>
     </row>
     <row r="13">
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="C13" t="n">
         <v>167.9198098429365</v>
@@ -28257,10 +28257,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9556149377512</v>
+        <v>87.18702453278978</v>
       </c>
       <c r="H13" t="n">
         <v>155.3344859367049</v>
@@ -28296,25 +28296,25 @@
         <v>135.6644318885835</v>
       </c>
       <c r="S13" t="n">
-        <v>112.0549615054146</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="U13" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="V13" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="W13" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="X13" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="C14" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="D14" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="E14" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="F14" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="G14" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="H14" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="I14" t="n">
         <v>147.459308470692</v>
@@ -28375,25 +28375,25 @@
         <v>51.23037211170278</v>
       </c>
       <c r="S14" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="T14" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="U14" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="V14" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="W14" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="X14" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="Y14" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
     </row>
     <row r="15">
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>98.44553276156273</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
         <v>160.0866360314548</v>
@@ -28424,7 +28424,7 @@
         <v>95.77124205704071</v>
       </c>
       <c r="I15" t="n">
-        <v>56.40745017229531</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>38.82520712046112</v>
+        <v>35.85294170087165</v>
       </c>
       <c r="S15" t="n">
         <v>145.180098865789</v>
@@ -28469,10 +28469,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>171.3897001674281</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>171.3897001674282</v>
       </c>
     </row>
     <row r="16">
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="C16" t="n">
         <v>167.9198098429365</v>
@@ -28497,7 +28497,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9556149377512</v>
+        <v>107.6208762757373</v>
       </c>
       <c r="H16" t="n">
         <v>155.3344859367049</v>
@@ -28533,25 +28533,25 @@
         <v>135.6644318885835</v>
       </c>
       <c r="S16" t="n">
-        <v>171.3897001674281</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="U16" t="n">
-        <v>112.0549615054146</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="V16" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="W16" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="X16" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.3897001674281</v>
+        <v>171.3897001674282</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>271.9762827838772</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="C17" t="n">
-        <v>271.9762827838772</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="D17" t="n">
-        <v>271.9762827838772</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="E17" t="n">
-        <v>271.9762827838772</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="F17" t="n">
-        <v>271.9762827838772</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="G17" t="n">
-        <v>271.9762827838772</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="H17" t="n">
-        <v>271.9762827838772</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="I17" t="n">
         <v>147.459308470692</v>
@@ -28621,16 +28621,16 @@
         <v>252.2874490740672</v>
       </c>
       <c r="V17" t="n">
-        <v>271.9762827838772</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="W17" t="n">
-        <v>271.9762827838772</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="X17" t="n">
-        <v>271.9762827838772</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="Y17" t="n">
-        <v>271.9762827838772</v>
+        <v>271.9762827838771</v>
       </c>
     </row>
     <row r="18">
@@ -28640,25 +28640,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>58.5150474971957</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
         <v>127.1132721997666</v>
       </c>
       <c r="H18" t="n">
-        <v>95.77124205704071</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>56.40745017229531</v>
@@ -28700,16 +28700,16 @@
         <v>216.2882692949636</v>
       </c>
       <c r="V18" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>218.4003606239943</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="19">
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>181.719814997536</v>
+        <v>25.13071422675466</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>134.4929323504436</v>
       </c>
       <c r="J19" t="n">
-        <v>40.01867628890813</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,28 +28764,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.12980963648914</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>135.6644318885835</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>206.781276689585</v>
       </c>
       <c r="T19" t="n">
-        <v>229.6724362179661</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>271.9762827838772</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>271.9762827838772</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="X19" t="n">
-        <v>77.91324590094763</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
         <v>219.8148072196457</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>271.9762827838772</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="C20" t="n">
-        <v>271.9762827838772</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="D20" t="n">
-        <v>271.9762827838772</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="E20" t="n">
-        <v>271.9762827838772</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="F20" t="n">
-        <v>271.9762827838772</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="G20" t="n">
-        <v>271.9762827838772</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="H20" t="n">
-        <v>271.9762827838772</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="I20" t="n">
         <v>147.459308470692</v>
@@ -28858,16 +28858,16 @@
         <v>252.2874490740672</v>
       </c>
       <c r="V20" t="n">
-        <v>271.9762827838772</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="W20" t="n">
-        <v>271.9762827838772</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="X20" t="n">
-        <v>271.9762827838772</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="Y20" t="n">
-        <v>271.9762827838772</v>
+        <v>271.9762827838771</v>
       </c>
     </row>
     <row r="21">
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>127.1132721997666</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>95.77124205704071</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>56.40745017229531</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>18.32285766543234</v>
+        <v>38.82520712046112</v>
       </c>
       <c r="S21" t="n">
-        <v>145.180098865789</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>185.4764132683503</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>216.2882692949636</v>
+        <v>149.9481165425348</v>
       </c>
       <c r="V21" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="22">
@@ -28959,28 +28959,28 @@
         <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.9556149377512</v>
       </c>
       <c r="H22" t="n">
-        <v>155.3344859367049</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>134.4929323504436</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>40.01867628890813</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29010,22 +29010,22 @@
         <v>206.781276689585</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>229.6724362179661</v>
       </c>
       <c r="U22" t="n">
-        <v>146.0930392462291</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="V22" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>271.9762827838772</v>
+        <v>271.9762827838771</v>
       </c>
       <c r="X22" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>114.5651400392711</v>
       </c>
     </row>
     <row r="23">
@@ -29092,7 +29092,7 @@
         <v>219.4322858770218</v>
       </c>
       <c r="U23" t="n">
-        <v>252.2874490740662</v>
+        <v>252.2874490740672</v>
       </c>
       <c r="V23" t="n">
         <v>271.9762827838772</v>
@@ -29129,10 +29129,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>126.9613737987181</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>95.77124205704071</v>
+        <v>6.444346560796149</v>
       </c>
       <c r="I24" t="n">
         <v>56.40745017229531</v>
@@ -29171,7 +29171,7 @@
         <v>185.4764132683503</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>216.2882692949636</v>
       </c>
       <c r="V24" t="n">
         <v>226.1116663261494</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
@@ -29205,10 +29205,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.9556149377512</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -29241,13 +29241,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>135.6644318885835</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>206.781276689585</v>
       </c>
       <c r="T25" t="n">
-        <v>53.98548761499353</v>
+        <v>229.6724362179661</v>
       </c>
       <c r="U25" t="n">
         <v>271.9762827838772</v>
@@ -29256,7 +29256,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>271.9762827838772</v>
+        <v>253.474903962504</v>
       </c>
       <c r="X25" t="n">
         <v>228.939939463578</v>
@@ -29296,13 +29296,13 @@
         <v>100.9948246402459</v>
       </c>
       <c r="J26" t="n">
-        <v>100.9948246402459</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>100.9948246402459</v>
       </c>
       <c r="L26" t="n">
-        <v>100.9948246402459</v>
+        <v>40.87787536901703</v>
       </c>
       <c r="M26" t="n">
         <v>100.9948246402459</v>
@@ -29311,10 +29311,10 @@
         <v>100.9948246402459</v>
       </c>
       <c r="O26" t="n">
-        <v>40.877875369018</v>
+        <v>100.9948246402459</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>100.9948246402459</v>
       </c>
       <c r="Q26" t="n">
         <v>100.9948246402459</v>
@@ -29469,7 +29469,7 @@
         <v>100.9948246402459</v>
       </c>
       <c r="O28" t="n">
-        <v>100.9948246402471</v>
+        <v>100.9948246402455</v>
       </c>
       <c r="P28" t="n">
         <v>100.9948246402459</v>
@@ -29536,10 +29536,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
+        <v>40.87787536901652</v>
+      </c>
+      <c r="L29" t="n">
         <v>100.9948246402459</v>
-      </c>
-      <c r="L29" t="n">
-        <v>40.87787536901772</v>
       </c>
       <c r="M29" t="n">
         <v>100.9948246402459</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="C32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="D32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="E32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="F32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="G32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="H32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="I32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="J32" t="n">
-        <v>40.87787536901693</v>
+        <v>100.994824640246</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="M32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="N32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="O32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="P32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="Q32" t="n">
-        <v>100.9948246402459</v>
+        <v>40.87787536901536</v>
       </c>
       <c r="R32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="S32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="T32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="U32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="V32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="W32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="X32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="Y32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="C34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="D34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="E34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="F34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="G34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="H34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="I34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="J34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="K34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="L34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640244</v>
       </c>
       <c r="M34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="N34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="O34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="P34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="Q34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="R34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="S34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="T34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="U34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="V34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="W34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="X34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="Y34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="C35" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="D35" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="E35" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="F35" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="G35" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="H35" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="I35" t="n">
         <v>147.459308470692</v>
@@ -30037,22 +30037,22 @@
         <v>171.3897001674282</v>
       </c>
       <c r="T35" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="U35" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="V35" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="W35" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="X35" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="Y35" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528011</v>
       </c>
     </row>
     <row r="36">
@@ -30077,13 +30077,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>31.3128088121494</v>
+        <v>127.1132721997666</v>
       </c>
       <c r="H36" t="n">
-        <v>95.77124205704071</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>56.40745017229531</v>
+        <v>17.55302172125945</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>38.82520712046112</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="C37" t="n">
         <v>167.9198098429365</v>
@@ -30195,22 +30195,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>76.73387982966662</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="U37" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="V37" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="W37" t="n">
-        <v>179.798182052801</v>
+        <v>76.73387982966625</v>
       </c>
       <c r="X37" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="Y37" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528011</v>
       </c>
     </row>
     <row r="38">
@@ -30317,10 +30317,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>38.31140217569629</v>
       </c>
       <c r="I39" t="n">
-        <v>56.40745017229531</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,16 +30347,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>38.82520712046112</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>145.180098865789</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>88.25884374872925</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>171.6333064275253</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.9198098429365</v>
@@ -30396,10 +30396,10 @@
         <v>166.9556149377512</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>155.3344859367049</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.4929323504436</v>
       </c>
       <c r="J40" t="n">
         <v>40.01867628890813</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.12980963648914</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>135.6644318885835</v>
@@ -30435,7 +30435,7 @@
         <v>179.798182052801</v>
       </c>
       <c r="U40" t="n">
-        <v>179.798182052801</v>
+        <v>76.73387982966685</v>
       </c>
       <c r="V40" t="n">
         <v>179.798182052801</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>179.3899400290042</v>
+        <v>179.389940029004</v>
       </c>
       <c r="C41" t="n">
-        <v>179.3899400290042</v>
+        <v>179.389940029004</v>
       </c>
       <c r="D41" t="n">
-        <v>179.3899400290042</v>
+        <v>179.389940029004</v>
       </c>
       <c r="E41" t="n">
-        <v>179.3899400290042</v>
+        <v>179.389940029004</v>
       </c>
       <c r="F41" t="n">
-        <v>179.3899400290042</v>
+        <v>179.389940029004</v>
       </c>
       <c r="G41" t="n">
-        <v>179.3899400290042</v>
+        <v>179.389940029004</v>
       </c>
       <c r="H41" t="n">
-        <v>179.3899400290042</v>
+        <v>179.389940029004</v>
       </c>
       <c r="I41" t="n">
         <v>147.459308470692</v>
@@ -30511,22 +30511,22 @@
         <v>171.3897001674282</v>
       </c>
       <c r="T41" t="n">
-        <v>179.3899400290042</v>
+        <v>179.389940029004</v>
       </c>
       <c r="U41" t="n">
-        <v>179.3899400290042</v>
+        <v>179.389940029004</v>
       </c>
       <c r="V41" t="n">
-        <v>179.3899400290042</v>
+        <v>179.389940029004</v>
       </c>
       <c r="W41" t="n">
-        <v>179.3899400290042</v>
+        <v>179.389940029004</v>
       </c>
       <c r="X41" t="n">
-        <v>179.3899400290042</v>
+        <v>179.389940029004</v>
       </c>
       <c r="Y41" t="n">
-        <v>179.3899400290042</v>
+        <v>179.389940029004</v>
       </c>
     </row>
     <row r="42">
@@ -30551,13 +30551,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>121.776904559831</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>56.40745017229531</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>38.82520712046112</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30593,7 +30593,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>139.3591476116642</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.3899400290042</v>
+        <v>179.389940029004</v>
       </c>
       <c r="C43" t="n">
         <v>167.9198098429365</v>
@@ -30633,7 +30633,7 @@
         <v>166.9556149377512</v>
       </c>
       <c r="H43" t="n">
-        <v>155.3344859367049</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>134.4929323504436</v>
@@ -30666,25 +30666,25 @@
         <v>135.6644318885835</v>
       </c>
       <c r="S43" t="n">
-        <v>179.3899400290042</v>
+        <v>39.99806824366041</v>
       </c>
       <c r="T43" t="n">
-        <v>179.3899400290042</v>
+        <v>179.389940029004</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>179.389940029004</v>
       </c>
       <c r="V43" t="n">
-        <v>179.3899400290042</v>
+        <v>179.389940029004</v>
       </c>
       <c r="W43" t="n">
-        <v>64.05352233595843</v>
+        <v>179.389940029004</v>
       </c>
       <c r="X43" t="n">
-        <v>179.3899400290042</v>
+        <v>179.389940029004</v>
       </c>
       <c r="Y43" t="n">
-        <v>179.3899400290042</v>
+        <v>179.389940029004</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>179.3899400290042</v>
+        <v>179.389940029004</v>
       </c>
       <c r="C44" t="n">
-        <v>179.3899400290042</v>
+        <v>179.389940029004</v>
       </c>
       <c r="D44" t="n">
-        <v>179.3899400290042</v>
+        <v>179.389940029004</v>
       </c>
       <c r="E44" t="n">
-        <v>179.3899400290042</v>
+        <v>179.389940029004</v>
       </c>
       <c r="F44" t="n">
-        <v>179.3899400290042</v>
+        <v>179.389940029004</v>
       </c>
       <c r="G44" t="n">
-        <v>179.3899400290042</v>
+        <v>179.389940029004</v>
       </c>
       <c r="H44" t="n">
-        <v>179.3899400290042</v>
+        <v>179.389940029004</v>
       </c>
       <c r="I44" t="n">
         <v>147.459308470692</v>
@@ -30748,22 +30748,22 @@
         <v>171.3897001674282</v>
       </c>
       <c r="T44" t="n">
-        <v>179.3899400290042</v>
+        <v>179.389940029004</v>
       </c>
       <c r="U44" t="n">
-        <v>179.3899400290042</v>
+        <v>179.389940029004</v>
       </c>
       <c r="V44" t="n">
-        <v>179.3899400290042</v>
+        <v>179.389940029004</v>
       </c>
       <c r="W44" t="n">
-        <v>179.3899400290042</v>
+        <v>179.389940029004</v>
       </c>
       <c r="X44" t="n">
-        <v>179.3899400290042</v>
+        <v>179.389940029004</v>
       </c>
       <c r="Y44" t="n">
-        <v>179.3899400290042</v>
+        <v>179.389940029004</v>
       </c>
     </row>
     <row r="45">
@@ -30788,13 +30788,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>127.1132721997666</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>51.07108253235888</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30824,10 +30824,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>145.180098865789</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>33.00425586633895</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.3899400290042</v>
+        <v>179.389940029004</v>
       </c>
       <c r="C46" t="n">
         <v>167.9198098429365</v>
@@ -30861,7 +30861,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>50.28231603973902</v>
       </c>
       <c r="F46" t="n">
         <v>150.9558484244806</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.12980963648914</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>135.6644318885835</v>
       </c>
       <c r="S46" t="n">
-        <v>179.3899400290042</v>
+        <v>179.389940029004</v>
       </c>
       <c r="T46" t="n">
-        <v>179.3899400290042</v>
+        <v>179.389940029004</v>
       </c>
       <c r="U46" t="n">
-        <v>179.3899400290042</v>
+        <v>179.389940029004</v>
       </c>
       <c r="V46" t="n">
-        <v>179.3899400290042</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>179.3899400290042</v>
+        <v>179.389940029004</v>
       </c>
       <c r="X46" t="n">
-        <v>64.05352233595852</v>
+        <v>179.389940029004</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>179.389940029004</v>
       </c>
     </row>
   </sheetData>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6129231134842085</v>
+        <v>0.6129231134842078</v>
       </c>
       <c r="H29" t="n">
-        <v>6.277098835970151</v>
+        <v>6.277098835970144</v>
       </c>
       <c r="I29" t="n">
-        <v>23.62971833259997</v>
+        <v>23.62971833259994</v>
       </c>
       <c r="J29" t="n">
-        <v>52.02108310308039</v>
+        <v>52.02108310308033</v>
       </c>
       <c r="K29" t="n">
-        <v>77.96611849686694</v>
+        <v>77.96611849686686</v>
       </c>
       <c r="L29" t="n">
-        <v>96.72386423115931</v>
+        <v>96.7238642311592</v>
       </c>
       <c r="M29" t="n">
-        <v>107.6239356505841</v>
+        <v>107.623935650584</v>
       </c>
       <c r="N29" t="n">
-        <v>109.3654034467711</v>
+        <v>109.365403446771</v>
       </c>
       <c r="O29" t="n">
-        <v>103.2706492370625</v>
+        <v>103.2706492370624</v>
       </c>
       <c r="P29" t="n">
-        <v>88.1391098729211</v>
+        <v>88.139109872921</v>
       </c>
       <c r="Q29" t="n">
-        <v>66.18880087126786</v>
+        <v>66.18880087126779</v>
       </c>
       <c r="R29" t="n">
-        <v>38.50153152740244</v>
+        <v>38.5015315274024</v>
       </c>
       <c r="S29" t="n">
-        <v>13.96698544852141</v>
+        <v>13.9669854485214</v>
       </c>
       <c r="T29" t="n">
-        <v>2.683070929277124</v>
+        <v>2.683070929277121</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04903384907873667</v>
+        <v>0.04903384907873661</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.327942777181669</v>
+        <v>0.3279427771816686</v>
       </c>
       <c r="H30" t="n">
-        <v>3.167236821728225</v>
+        <v>3.167236821728221</v>
       </c>
       <c r="I30" t="n">
-        <v>11.2910122845443</v>
+        <v>11.29101228454429</v>
       </c>
       <c r="J30" t="n">
-        <v>30.98340071609795</v>
+        <v>30.98340071609791</v>
       </c>
       <c r="K30" t="n">
-        <v>52.95556678726977</v>
+        <v>52.95556678726971</v>
       </c>
       <c r="L30" t="n">
-        <v>71.20529466832686</v>
+        <v>71.20529466832677</v>
       </c>
       <c r="M30" t="n">
-        <v>83.09322034116234</v>
+        <v>83.09322034116225</v>
       </c>
       <c r="N30" t="n">
-        <v>85.29245063199907</v>
+        <v>85.29245063199897</v>
       </c>
       <c r="O30" t="n">
-        <v>78.02592909549998</v>
+        <v>78.02592909549989</v>
       </c>
       <c r="P30" t="n">
-        <v>62.62268698655923</v>
+        <v>62.62268698655916</v>
       </c>
       <c r="Q30" t="n">
-        <v>41.86160783813725</v>
+        <v>41.86160783813721</v>
       </c>
       <c r="R30" t="n">
-        <v>20.36121909554258</v>
+        <v>20.36121909554256</v>
       </c>
       <c r="S30" t="n">
-        <v>6.091393251598102</v>
+        <v>6.091393251598094</v>
       </c>
       <c r="T30" t="n">
-        <v>1.321839527324358</v>
+        <v>1.321839527324357</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02157518270932034</v>
+        <v>0.02157518270932031</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2749362080772404</v>
+        <v>0.2749362080772401</v>
       </c>
       <c r="H31" t="n">
-        <v>2.444432831814012</v>
+        <v>2.444432831814009</v>
       </c>
       <c r="I31" t="n">
-        <v>8.268081602904651</v>
+        <v>8.26808160290464</v>
       </c>
       <c r="J31" t="n">
-        <v>19.4379899110609</v>
+        <v>19.43798991106087</v>
       </c>
       <c r="K31" t="n">
-        <v>31.94258853842847</v>
+        <v>31.94258853842843</v>
       </c>
       <c r="L31" t="n">
-        <v>40.87551588086536</v>
+        <v>40.87551588086532</v>
       </c>
       <c r="M31" t="n">
-        <v>43.09750032614414</v>
+        <v>43.09750032614409</v>
       </c>
       <c r="N31" t="n">
-        <v>42.0727380960381</v>
+        <v>42.07273809603805</v>
       </c>
       <c r="O31" t="n">
-        <v>38.86098330168123</v>
+        <v>38.86098330168119</v>
       </c>
       <c r="P31" t="n">
-        <v>33.2522846569055</v>
+        <v>33.25228465690546</v>
       </c>
       <c r="Q31" t="n">
-        <v>23.02215829635874</v>
+        <v>23.02215829635871</v>
       </c>
       <c r="R31" t="n">
-        <v>12.3621316831821</v>
+        <v>12.36213168318208</v>
       </c>
       <c r="S31" t="n">
-        <v>4.79138828076427</v>
+        <v>4.791388280764265</v>
       </c>
       <c r="T31" t="n">
-        <v>1.174727434511845</v>
+        <v>1.174727434511844</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01499652044057677</v>
+        <v>0.01499652044057675</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>124.7468853988436</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>294.089622170904</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>289.9750342602086</v>
+        <v>120.6322974881485</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>294.0896221709042</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>294.0896221709042</v>
       </c>
       <c r="P11" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709042</v>
       </c>
       <c r="Q11" t="n">
         <v>161.5749157061537</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>91.84617499196271</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>294.0896221709042</v>
       </c>
       <c r="M12" t="n">
-        <v>294.089622170904</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709042</v>
       </c>
       <c r="O12" t="n">
-        <v>283.2237699233946</v>
+        <v>294.0896221709042</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>282.207213194302</v>
       </c>
       <c r="Q12" t="n">
-        <v>201.2268904498486</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>124.7468853988436</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>289.9750342602082</v>
       </c>
       <c r="M14" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="N14" t="n">
-        <v>294.089622170904</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>282.2072131943019</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>294.089622170904</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>161.5749157061537</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>91.84617499196271</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>284.7642057369553</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>282.2072131943017</v>
       </c>
       <c r="N15" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="P15" t="n">
-        <v>292.5491863573433</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="Q15" t="n">
-        <v>201.2268904498486</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,22 +35881,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>124.7468853988436</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>294.089622170904</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>157.4603277954584</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="N17" t="n">
-        <v>294.089622170904</v>
+        <v>282.2072131943017</v>
       </c>
       <c r="O17" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>91.84617499196271</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>284.7642057369553</v>
       </c>
       <c r="L18" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="M18" t="n">
-        <v>292.5491863573433</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>291.5326296282501</v>
       </c>
       <c r="Q18" t="n">
-        <v>201.2268904498486</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,25 +36121,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>294.089622170904</v>
+        <v>120.6322974881481</v>
       </c>
       <c r="L20" t="n">
-        <v>282.207213194302</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="P20" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>161.5749157061537</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>91.84617499196271</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>284.7642057369553</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="N21" t="n">
-        <v>292.5491863573432</v>
+        <v>291.5326296282501</v>
       </c>
       <c r="O21" t="n">
-        <v>294.089622170904</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>201.2268904498486</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,22 +36355,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>124.7468853988436</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>294.089622170904</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="M23" t="n">
-        <v>157.4603277954583</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="N23" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>282.2072131943016</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36388,7 +36388,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>-9.186815169423518e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>284.7642057369553</v>
       </c>
       <c r="L24" t="n">
-        <v>292.5491863573432</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>292.5491863573426</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36452,7 +36452,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>294.089622170904</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>201.2268904498486</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>225.7417100390895</v>
+        <v>124.7468853988436</v>
       </c>
       <c r="K26" t="n">
-        <v>421.5269755055801</v>
+        <v>421.5269755055802</v>
       </c>
       <c r="L26" t="n">
-        <v>549.118055623876</v>
+        <v>489.0011063526472</v>
       </c>
       <c r="M26" t="n">
-        <v>605.8300393343529</v>
+        <v>605.8300393343532</v>
       </c>
       <c r="N26" t="n">
-        <v>592.5131156503661</v>
+        <v>592.5131156503662</v>
       </c>
       <c r="O26" t="n">
-        <v>452.2339634675288</v>
+        <v>512.3509127387567</v>
       </c>
       <c r="P26" t="n">
-        <v>318.6006214446919</v>
+        <v>419.5954460849379</v>
       </c>
       <c r="Q26" t="n">
-        <v>262.5697403463995</v>
+        <v>262.5697403463996</v>
       </c>
       <c r="R26" t="n">
-        <v>49.76445252854308</v>
+        <v>49.76445252854315</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>91.84617499196271</v>
       </c>
       <c r="K27" t="n">
-        <v>43.21153340243516</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>440.7223099916759</v>
@@ -36689,7 +36689,7 @@
         <v>474.1874955441372</v>
       </c>
       <c r="P27" t="n">
-        <v>367.7700801943341</v>
+        <v>319.1354386048063</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.97614835133774</v>
+        <v>60.97614835133781</v>
       </c>
       <c r="K28" t="n">
-        <v>166.8810371631626</v>
+        <v>166.8810371631627</v>
       </c>
       <c r="L28" t="n">
-        <v>243.4936530466258</v>
+        <v>243.4936530466259</v>
       </c>
       <c r="M28" t="n">
-        <v>263.2776846912402</v>
+        <v>263.2776846912403</v>
       </c>
       <c r="N28" t="n">
         <v>262.6860897560823</v>
       </c>
       <c r="O28" t="n">
-        <v>239.3140367254532</v>
+        <v>239.3140367254516</v>
       </c>
       <c r="P28" t="n">
-        <v>197.8516383154723</v>
+        <v>197.8516383154724</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.86501500375672</v>
+        <v>85.8650150037568</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>124.7468853988437</v>
+        <v>124.7468853988436</v>
       </c>
       <c r="K29" t="n">
-        <v>421.5269755055803</v>
+        <v>361.4100262343508</v>
       </c>
       <c r="L29" t="n">
-        <v>489.001106352648</v>
+        <v>549.1180556238761</v>
       </c>
       <c r="M29" t="n">
         <v>605.8300393343532</v>
@@ -36844,7 +36844,7 @@
         <v>592.5131156503662</v>
       </c>
       <c r="O29" t="n">
-        <v>512.3509127387568</v>
+        <v>512.3509127387567</v>
       </c>
       <c r="P29" t="n">
         <v>419.5954460849379</v>
@@ -36853,7 +36853,7 @@
         <v>262.5697403463996</v>
       </c>
       <c r="R29" t="n">
-        <v>49.76445252854314</v>
+        <v>49.76445252854315</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>91.84617499196271</v>
       </c>
       <c r="K30" t="n">
-        <v>43.21153340243474</v>
+        <v>284.7642057369553</v>
       </c>
       <c r="L30" t="n">
-        <v>440.722309991676</v>
+        <v>440.7223099916759</v>
       </c>
       <c r="M30" t="n">
-        <v>573.0259006545224</v>
+        <v>239.6270533280395</v>
       </c>
       <c r="N30" t="n">
-        <v>601.7223962109102</v>
+        <v>601.7223962109101</v>
       </c>
       <c r="O30" t="n">
         <v>474.1874955441372</v>
       </c>
       <c r="P30" t="n">
-        <v>367.7700801943342</v>
+        <v>367.7700801943341</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.97614835133778</v>
+        <v>60.97614835133781</v>
       </c>
       <c r="K31" t="n">
         <v>166.8810371631627</v>
@@ -36999,7 +36999,7 @@
         <v>263.2776846912403</v>
       </c>
       <c r="N31" t="n">
-        <v>262.6860897560823</v>
+        <v>262.6860897560824</v>
       </c>
       <c r="O31" t="n">
         <v>239.3140367254521</v>
@@ -37008,7 +37008,7 @@
         <v>197.8516383154724</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.86501500375677</v>
+        <v>85.8650150037568</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>165.6247607678606</v>
+        <v>225.7417100390896</v>
       </c>
       <c r="K32" t="n">
         <v>320.5321508653343</v>
@@ -37081,16 +37081,16 @@
         <v>592.5131156503662</v>
       </c>
       <c r="O32" t="n">
-        <v>512.3509127387567</v>
+        <v>512.3509127387568</v>
       </c>
       <c r="P32" t="n">
         <v>419.5954460849379</v>
       </c>
       <c r="Q32" t="n">
-        <v>262.5697403463996</v>
+        <v>202.452791075169</v>
       </c>
       <c r="R32" t="n">
-        <v>49.76445252854315</v>
+        <v>49.76445252854324</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>440.7223099916759</v>
       </c>
       <c r="M33" t="n">
-        <v>573.0259006545223</v>
+        <v>512.5876584223283</v>
       </c>
       <c r="N33" t="n">
-        <v>67.09665843457864</v>
+        <v>601.7223962109101</v>
       </c>
       <c r="O33" t="n">
-        <v>474.1874955441372</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>367.7700801943341</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.97614835133781</v>
+        <v>60.9761483513379</v>
       </c>
       <c r="K34" t="n">
         <v>166.8810371631627</v>
       </c>
       <c r="L34" t="n">
-        <v>243.4936530466259</v>
+        <v>243.4936530466239</v>
       </c>
       <c r="M34" t="n">
         <v>263.2776846912403</v>
@@ -37242,10 +37242,10 @@
         <v>239.3140367254521</v>
       </c>
       <c r="P34" t="n">
-        <v>197.8516383154724</v>
+        <v>197.8516383154725</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.8650150037568</v>
+        <v>85.86501500375688</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>124.7468853988436</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>320.5321508653343</v>
@@ -37321,7 +37321,7 @@
         <v>411.3560880985108</v>
       </c>
       <c r="P35" t="n">
-        <v>12.31073318286745</v>
+        <v>137.0576185817092</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>241.2296512341294</v>
+        <v>284.7642057369553</v>
       </c>
       <c r="L36" t="n">
         <v>440.7223099916759</v>
@@ -37394,16 +37394,16 @@
         <v>573.0259006545223</v>
       </c>
       <c r="N36" t="n">
-        <v>584.2572368089488</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>474.1874955441372</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>367.7700801943341</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>172.952602111787</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,10 +37543,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>320.5321508653343</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>266.5802281206491</v>
+        <v>448.1232309836302</v>
       </c>
       <c r="M38" t="n">
         <v>504.8352146941072</v>
@@ -37561,7 +37561,7 @@
         <v>318.6006214446919</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>138.9891480023531</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>91.84617499196271</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>284.7642057369553</v>
       </c>
       <c r="L39" t="n">
-        <v>112.9549905816227</v>
+        <v>440.7223099916759</v>
       </c>
       <c r="M39" t="n">
         <v>573.0259006545223</v>
       </c>
       <c r="N39" t="n">
-        <v>584.2572368089488</v>
+        <v>354.0670322141151</v>
       </c>
       <c r="O39" t="n">
-        <v>474.1874955441372</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>367.7700801943341</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>124.7468853988436</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>320.5321508653343</v>
@@ -37795,7 +37795,7 @@
         <v>411.3560880985108</v>
       </c>
       <c r="P41" t="n">
-        <v>17.72563605947074</v>
+        <v>142.4725214583158</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>91.84617499196271</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>284.7642057369553</v>
       </c>
       <c r="L42" t="n">
-        <v>440.7223099916759</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>573.0259006545223</v>
+        <v>313.4178741369343</v>
       </c>
       <c r="N42" t="n">
-        <v>585.6247760558462</v>
+        <v>585.6247760558465</v>
       </c>
       <c r="O42" t="n">
         <v>474.1874955441372</v>
       </c>
       <c r="P42" t="n">
-        <v>245.2770148638358</v>
+        <v>367.7700801943341</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>201.2268904498486</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>110.4202152910999</v>
       </c>
       <c r="K44" t="n">
         <v>320.5321508653343</v>
       </c>
       <c r="L44" t="n">
-        <v>448.1232309836302</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>485.7328204462666</v>
+        <v>504.8352146941072</v>
       </c>
       <c r="N44" t="n">
         <v>491.5182910101202</v>
@@ -38032,7 +38032,7 @@
         <v>411.3560880985108</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>318.6006214446919</v>
       </c>
       <c r="Q44" t="n">
         <v>161.5749157061537</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>284.7642057369553</v>
       </c>
       <c r="L45" t="n">
         <v>440.7223099916759</v>
@@ -38105,13 +38105,13 @@
         <v>573.0259006545223</v>
       </c>
       <c r="N45" t="n">
-        <v>585.6247760558458</v>
+        <v>546.1375851827273</v>
       </c>
       <c r="O45" t="n">
         <v>474.1874955441372</v>
       </c>
       <c r="P45" t="n">
-        <v>245.2770148638349</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
